--- a/planilha_sumare.xlsx
+++ b/planilha_sumare.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Lucas\Desktop\Automacao Jetta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Lucas\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225876AA-7963-4049-B39E-9657545E6ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C346D-D69B-42BE-ADD8-BF1280C38320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="93">
   <si>
     <t>Data NF</t>
   </si>
@@ -94,13 +94,223 @@
   </si>
   <si>
     <t>Reentrega</t>
+  </si>
+  <si>
+    <t>32.933.021/0001-56</t>
+  </si>
+  <si>
+    <t>44.134.139/0001-01</t>
+  </si>
+  <si>
+    <t>48.648.979/0001-35</t>
+  </si>
+  <si>
+    <t>11.673.851/0001-11</t>
+  </si>
+  <si>
+    <t>34.944.326/0001-99</t>
+  </si>
+  <si>
+    <t>44.737.742/0001-70</t>
+  </si>
+  <si>
+    <t>17.611.014/0277-78</t>
+  </si>
+  <si>
+    <t>12.908.446/0001-06</t>
+  </si>
+  <si>
+    <t>28.742.089/0001-80</t>
+  </si>
+  <si>
+    <t>17.611.014/0122-31</t>
+  </si>
+  <si>
+    <t>10.591.351/0001-78</t>
+  </si>
+  <si>
+    <t>12.616.729/0001-76</t>
+  </si>
+  <si>
+    <t>36.357.995/0001-90</t>
+  </si>
+  <si>
+    <t>40.975.859/0001-30</t>
+  </si>
+  <si>
+    <t>47.588.548/0001-68</t>
+  </si>
+  <si>
+    <t>52.421.193/0001-58</t>
+  </si>
+  <si>
+    <t>05.287.975/0001-66</t>
+  </si>
+  <si>
+    <t>10.345.781/0001-00</t>
+  </si>
+  <si>
+    <t>17.002.681/0001-20</t>
+  </si>
+  <si>
+    <t>32.989.390/0001-60</t>
+  </si>
+  <si>
+    <t>41.928.605/0001-24</t>
+  </si>
+  <si>
+    <t>47.735.028/0001-30</t>
+  </si>
+  <si>
+    <t>51.560.917/0001-81</t>
+  </si>
+  <si>
+    <t>14.628.720/0001-00</t>
+  </si>
+  <si>
+    <t>08.196.251/0001-03</t>
+  </si>
+  <si>
+    <t>43.776.422/0001-66</t>
+  </si>
+  <si>
+    <t>17.611.014/0268-87</t>
+  </si>
+  <si>
+    <t>45.792.076/0001-35</t>
+  </si>
+  <si>
+    <t>49.825.916/0001-70</t>
+  </si>
+  <si>
+    <t>31.884.548/0001-75</t>
+  </si>
+  <si>
+    <t>37.437.732/0001-53</t>
+  </si>
+  <si>
+    <t>31.884.548/0002-56</t>
+  </si>
+  <si>
+    <t>48.009.374/0001-02</t>
+  </si>
+  <si>
+    <t>17.611.014/0045-65</t>
+  </si>
+  <si>
+    <t>43.383.122/0001-17</t>
+  </si>
+  <si>
+    <t>46.865.985/0001-19</t>
+  </si>
+  <si>
+    <t>17.611.014/0336-62</t>
+  </si>
+  <si>
+    <t>48.079.781/0001-88</t>
+  </si>
+  <si>
+    <t>50.738.177/0001-68</t>
+  </si>
+  <si>
+    <t>52.702.332/0001-11</t>
+  </si>
+  <si>
+    <t>32.997.516/0001-49</t>
+  </si>
+  <si>
+    <t>33.295.167/0001-86</t>
+  </si>
+  <si>
+    <t>35.000.119/0001-49</t>
+  </si>
+  <si>
+    <t>45.257.600/0001-78</t>
+  </si>
+  <si>
+    <t>47.379.275/0001-41</t>
+  </si>
+  <si>
+    <t>12.453.794/0001-28</t>
+  </si>
+  <si>
+    <t>35.760.244/0001-57</t>
+  </si>
+  <si>
+    <t>38.470.655/0001-04</t>
+  </si>
+  <si>
+    <t>41.400.791/0001-24</t>
+  </si>
+  <si>
+    <t>47.764.855/0001-52</t>
+  </si>
+  <si>
+    <t>10.929.254/0001-42</t>
+  </si>
+  <si>
+    <t>52.329.605/0001-24</t>
+  </si>
+  <si>
+    <t>39.773.028/0001-05</t>
+  </si>
+  <si>
+    <t>42.368.502/0001-10</t>
+  </si>
+  <si>
+    <t>42.627.965/0001-59</t>
+  </si>
+  <si>
+    <t>48.355.277/0001-63</t>
+  </si>
+  <si>
+    <t>39.396.293/0002-94</t>
+  </si>
+  <si>
+    <t>52.961.522/0001-53</t>
+  </si>
+  <si>
+    <t>22.939.007/0001-06</t>
+  </si>
+  <si>
+    <t>42.130.572/0002-16</t>
+  </si>
+  <si>
+    <t>17.611.014/0352-82</t>
+  </si>
+  <si>
+    <t>48.784.531/0001-49</t>
+  </si>
+  <si>
+    <t>28.263.038/0001-76</t>
+  </si>
+  <si>
+    <t>17.611.014/0228-90</t>
+  </si>
+  <si>
+    <t>42.554.426/0001-37</t>
+  </si>
+  <si>
+    <t>17.611.014/0166-52</t>
+  </si>
+  <si>
+    <t>Imagem com erro</t>
+  </si>
+  <si>
+    <t>Ok-Adm</t>
+  </si>
+  <si>
+    <t>Devolução total</t>
+  </si>
+  <si>
+    <t>Não carregou no veículo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +354,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C5700"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +398,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -189,18 +423,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -224,59 +458,35 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -552,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,6 +1612,5404 @@
         <v>12</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B33" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2050336</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B34" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E34" s="13">
+        <v>2</v>
+      </c>
+      <c r="F34" s="14">
+        <v>2050353</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B35" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2</v>
+      </c>
+      <c r="F35" s="14">
+        <v>2050379</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B36" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+      <c r="F36" s="14">
+        <v>2050394</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B37" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1230348</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B38" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E38" s="13">
+        <v>2</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1230369</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B39" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E39" s="13">
+        <v>2</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1230373</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B40" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="13">
+        <v>187399</v>
+      </c>
+      <c r="E40" s="13">
+        <v>2</v>
+      </c>
+      <c r="F40" s="15">
+        <v>1232101</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B41" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="13">
+        <v>187399</v>
+      </c>
+      <c r="E41" s="13">
+        <v>2</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1232102</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B42" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="13">
+        <v>187399</v>
+      </c>
+      <c r="E42" s="13">
+        <v>2</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1232103</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B43" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="13">
+        <v>187399</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2</v>
+      </c>
+      <c r="F43" s="14">
+        <v>1232291</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B44" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E44" s="13">
+        <v>2</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1237931</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B45" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E45" s="13">
+        <v>2</v>
+      </c>
+      <c r="F45" s="14">
+        <v>1237965</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B46" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E46" s="13">
+        <v>2</v>
+      </c>
+      <c r="F46" s="14">
+        <v>1237974</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B47" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2</v>
+      </c>
+      <c r="F47" s="14">
+        <v>1237975</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B48" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E48" s="13">
+        <v>2</v>
+      </c>
+      <c r="F48" s="14">
+        <v>2047914</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B49" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E49" s="13">
+        <v>2</v>
+      </c>
+      <c r="F49" s="14">
+        <v>2047915</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B50" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E50" s="13">
+        <v>2</v>
+      </c>
+      <c r="F50" s="14">
+        <v>2047955</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B51" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E51" s="13">
+        <v>2</v>
+      </c>
+      <c r="F51" s="14">
+        <v>2047956</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B52" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E52" s="13">
+        <v>2</v>
+      </c>
+      <c r="F52" s="14">
+        <v>2047964</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B53" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E53" s="13">
+        <v>2</v>
+      </c>
+      <c r="F53" s="14">
+        <v>2047965</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B54" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E54" s="13">
+        <v>2</v>
+      </c>
+      <c r="F54" s="14">
+        <v>2050358</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B55" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E55" s="13">
+        <v>2</v>
+      </c>
+      <c r="F55" s="14">
+        <v>2050380</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B56" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E56" s="13">
+        <v>2</v>
+      </c>
+      <c r="F56" s="14">
+        <v>2050385</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B57" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E57" s="13">
+        <v>2</v>
+      </c>
+      <c r="F57" s="14">
+        <v>1230329</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B58" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E58" s="13">
+        <v>2</v>
+      </c>
+      <c r="F58" s="14">
+        <v>1230342</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B59" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E59" s="13">
+        <v>2</v>
+      </c>
+      <c r="F59" s="14">
+        <v>1230346</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B60" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E60" s="13">
+        <v>2</v>
+      </c>
+      <c r="F60" s="14">
+        <v>1230362</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B61" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E61" s="13">
+        <v>2</v>
+      </c>
+      <c r="F61" s="14">
+        <v>1237905</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B62" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E62" s="13">
+        <v>2</v>
+      </c>
+      <c r="F62" s="14">
+        <v>1237923</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B63" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E63" s="13">
+        <v>2</v>
+      </c>
+      <c r="F63" s="14">
+        <v>1237929</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B64" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E64" s="13">
+        <v>2</v>
+      </c>
+      <c r="F64" s="14">
+        <v>1237953</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B65" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E65" s="13">
+        <v>2</v>
+      </c>
+      <c r="F65" s="14">
+        <v>2047875</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B66" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E66" s="13">
+        <v>2</v>
+      </c>
+      <c r="F66" s="14">
+        <v>2047876</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B67" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E67" s="13">
+        <v>2</v>
+      </c>
+      <c r="F67" s="14">
+        <v>2047902</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B68" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E68" s="13">
+        <v>2</v>
+      </c>
+      <c r="F68" s="14">
+        <v>2047903</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B69" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E69" s="13">
+        <v>2</v>
+      </c>
+      <c r="F69" s="14">
+        <v>2047910</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B70" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E70" s="13">
+        <v>2</v>
+      </c>
+      <c r="F70" s="14">
+        <v>2047911</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B71" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E71" s="13">
+        <v>2</v>
+      </c>
+      <c r="F71" s="14">
+        <v>2047942</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B72" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E72" s="13">
+        <v>2</v>
+      </c>
+      <c r="F72" s="14">
+        <v>2047943</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B73" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E73" s="13">
+        <v>2</v>
+      </c>
+      <c r="F73" s="14">
+        <v>2050352</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B74" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E74" s="13">
+        <v>2</v>
+      </c>
+      <c r="F74" s="14">
+        <v>2050356</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B75" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E75" s="13">
+        <v>2</v>
+      </c>
+      <c r="F75" s="14">
+        <v>2050373</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B76" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E76" s="13">
+        <v>2</v>
+      </c>
+      <c r="F76" s="14">
+        <v>1230330</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B77" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E77" s="13">
+        <v>2</v>
+      </c>
+      <c r="F77" s="14">
+        <v>1230353</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B78" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E78" s="13">
+        <v>2</v>
+      </c>
+      <c r="F78" s="14">
+        <v>1230358</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B79" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E79" s="13">
+        <v>2</v>
+      </c>
+      <c r="F79" s="14">
+        <v>1230378</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B80" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E80" s="13">
+        <v>2</v>
+      </c>
+      <c r="F80" s="14">
+        <v>1237906</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B81" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E81" s="13">
+        <v>2</v>
+      </c>
+      <c r="F81" s="14">
+        <v>1237936</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B82" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E82" s="13">
+        <v>2</v>
+      </c>
+      <c r="F82" s="14">
+        <v>1237937</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B83" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E83" s="13">
+        <v>2</v>
+      </c>
+      <c r="F83" s="14">
+        <v>1237942</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B84" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E84" s="13">
+        <v>2</v>
+      </c>
+      <c r="F84" s="14">
+        <v>1237981</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B85" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E85" s="13">
+        <v>2</v>
+      </c>
+      <c r="F85" s="14">
+        <v>1238008</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B86" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E86" s="13">
+        <v>2</v>
+      </c>
+      <c r="F86" s="14">
+        <v>2047877</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B87" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E87" s="13">
+        <v>2</v>
+      </c>
+      <c r="F87" s="14">
+        <v>2047878</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B88" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E88" s="13">
+        <v>2</v>
+      </c>
+      <c r="F88" s="14">
+        <v>2047924</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B89" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E89" s="13">
+        <v>2</v>
+      </c>
+      <c r="F89" s="14">
+        <v>2047925</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B90" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E90" s="13">
+        <v>2</v>
+      </c>
+      <c r="F90" s="14">
+        <v>2047934</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B91" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E91" s="13">
+        <v>2</v>
+      </c>
+      <c r="F91" s="14">
+        <v>2047935</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B92" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E92" s="13">
+        <v>2</v>
+      </c>
+      <c r="F92" s="14">
+        <v>2047974</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B93" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E93" s="13">
+        <v>2</v>
+      </c>
+      <c r="F93" s="14">
+        <v>2047975</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B94" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E94" s="13">
+        <v>2</v>
+      </c>
+      <c r="F94" s="14">
+        <v>2050363</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B95" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E95" s="13">
+        <v>2</v>
+      </c>
+      <c r="F95" s="14">
+        <v>2050368</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B96" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E96" s="13">
+        <v>2</v>
+      </c>
+      <c r="F96" s="14">
+        <v>2050389</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B97" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E97" s="13">
+        <v>2</v>
+      </c>
+      <c r="F97" s="14">
+        <v>1237897</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B98" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E98" s="13">
+        <v>2</v>
+      </c>
+      <c r="F98" s="14">
+        <v>1237899</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B99" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E99" s="13">
+        <v>2</v>
+      </c>
+      <c r="F99" s="14">
+        <v>1237910</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B100" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E100" s="13">
+        <v>2</v>
+      </c>
+      <c r="F100" s="14">
+        <v>1237926</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B101" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E101" s="13">
+        <v>2</v>
+      </c>
+      <c r="F101" s="14">
+        <v>1237948</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B102" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E102" s="13">
+        <v>2</v>
+      </c>
+      <c r="F102" s="14">
+        <v>1237985</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B103" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E103" s="13">
+        <v>2</v>
+      </c>
+      <c r="F103" s="14">
+        <v>1238007</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B104" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="13">
+        <v>187487</v>
+      </c>
+      <c r="E104" s="13">
+        <v>2</v>
+      </c>
+      <c r="F104" s="14">
+        <v>2047253</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B105" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="13">
+        <v>187487</v>
+      </c>
+      <c r="E105" s="13">
+        <v>2</v>
+      </c>
+      <c r="F105" s="14">
+        <v>2047267</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B106" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="13">
+        <v>187487</v>
+      </c>
+      <c r="E106" s="13">
+        <v>2</v>
+      </c>
+      <c r="F106" s="16">
+        <v>2047276</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B107" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="13">
+        <v>187487</v>
+      </c>
+      <c r="E107" s="13">
+        <v>2</v>
+      </c>
+      <c r="F107" s="16">
+        <v>2047294</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B108" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="13">
+        <v>187487</v>
+      </c>
+      <c r="E108" s="13">
+        <v>2</v>
+      </c>
+      <c r="F108" s="14">
+        <v>2047312</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B109" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" s="13">
+        <v>187487</v>
+      </c>
+      <c r="E109" s="13">
+        <v>2</v>
+      </c>
+      <c r="F109" s="14">
+        <v>2047360</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B110" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E110" s="13">
+        <v>2</v>
+      </c>
+      <c r="F110" s="14">
+        <v>1230333</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B111" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E111" s="13">
+        <v>2</v>
+      </c>
+      <c r="F111" s="14">
+        <v>1237898</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B112" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E112" s="13">
+        <v>2</v>
+      </c>
+      <c r="F112" s="14">
+        <v>1237909</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B113" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E113" s="13">
+        <v>2</v>
+      </c>
+      <c r="F113" s="14">
+        <v>1237956</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B114" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E114" s="13">
+        <v>2</v>
+      </c>
+      <c r="F114" s="14">
+        <v>1237969</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B115" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E115" s="13">
+        <v>2</v>
+      </c>
+      <c r="F115" s="14">
+        <v>1237970</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B116" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E116" s="13">
+        <v>2</v>
+      </c>
+      <c r="F116" s="14">
+        <v>1237971</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B117" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D117" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E117" s="13">
+        <v>2</v>
+      </c>
+      <c r="F117" s="14">
+        <v>1237996</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B118" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E118" s="13">
+        <v>2</v>
+      </c>
+      <c r="F118" s="14">
+        <v>2047883</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B119" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E119" s="13">
+        <v>2</v>
+      </c>
+      <c r="F119" s="14">
+        <v>2047884</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B120" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E120" s="13">
+        <v>2</v>
+      </c>
+      <c r="F120" s="14">
+        <v>2050341</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B121" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E121" s="13">
+        <v>2</v>
+      </c>
+      <c r="F121" s="14">
+        <v>2050351</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B122" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D122" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E122" s="13">
+        <v>2</v>
+      </c>
+      <c r="F122" s="14">
+        <v>2050366</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B123" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E123" s="13">
+        <v>2</v>
+      </c>
+      <c r="F123" s="14">
+        <v>2050371</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B124" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E124" s="13">
+        <v>2</v>
+      </c>
+      <c r="F124" s="14">
+        <v>2050384</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B125" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E125" s="13">
+        <v>2</v>
+      </c>
+      <c r="F125" s="14">
+        <v>2050390</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B126" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E126" s="13">
+        <v>2</v>
+      </c>
+      <c r="F126" s="14">
+        <v>2050395</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B127" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E127" s="13">
+        <v>2</v>
+      </c>
+      <c r="F127" s="14">
+        <v>1230333</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B128" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E128" s="13">
+        <v>2</v>
+      </c>
+      <c r="F128" s="14">
+        <v>1237898</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H128" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B129" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E129" s="13">
+        <v>2</v>
+      </c>
+      <c r="F129" s="14">
+        <v>1237909</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B130" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E130" s="13">
+        <v>2</v>
+      </c>
+      <c r="F130" s="14">
+        <v>1237956</v>
+      </c>
+      <c r="G130" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B131" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E131" s="13">
+        <v>2</v>
+      </c>
+      <c r="F131" s="14">
+        <v>1237969</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B132" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E132" s="13">
+        <v>2</v>
+      </c>
+      <c r="F132" s="14">
+        <v>1237996</v>
+      </c>
+      <c r="G132" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B133" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D133" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E133" s="13">
+        <v>2</v>
+      </c>
+      <c r="F133" s="14">
+        <v>2047883</v>
+      </c>
+      <c r="G133" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B134" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D134" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E134" s="13">
+        <v>2</v>
+      </c>
+      <c r="F134" s="14">
+        <v>2047884</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B135" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E135" s="13">
+        <v>2</v>
+      </c>
+      <c r="F135" s="14">
+        <v>2050333</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B136" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E136" s="13">
+        <v>2</v>
+      </c>
+      <c r="F136" s="14">
+        <v>2050376</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B137" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E137" s="13">
+        <v>2</v>
+      </c>
+      <c r="F137" s="14">
+        <v>2050382</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B138" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D138" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E138" s="13">
+        <v>2</v>
+      </c>
+      <c r="F138" s="14">
+        <v>2050399</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B139" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E139" s="13">
+        <v>2</v>
+      </c>
+      <c r="F139" s="14">
+        <v>1237915</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B140" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D140" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E140" s="13">
+        <v>2</v>
+      </c>
+      <c r="F140" s="14">
+        <v>1237955</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B141" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D141" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E141" s="13">
+        <v>2</v>
+      </c>
+      <c r="F141" s="14">
+        <v>1237977</v>
+      </c>
+      <c r="G141" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B142" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D142" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E142" s="13">
+        <v>2</v>
+      </c>
+      <c r="F142" s="14">
+        <v>1237980</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H142" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B143" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D143" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E143" s="13">
+        <v>2</v>
+      </c>
+      <c r="F143" s="14">
+        <v>1237990</v>
+      </c>
+      <c r="G143" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H143" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B144" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D144" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E144" s="13">
+        <v>2</v>
+      </c>
+      <c r="F144" s="14">
+        <v>1238001</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B145" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D145" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E145" s="13">
+        <v>2</v>
+      </c>
+      <c r="F145" s="14">
+        <v>1238013</v>
+      </c>
+      <c r="G145" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H145" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B146" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D146" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E146" s="13">
+        <v>2</v>
+      </c>
+      <c r="F146" s="14">
+        <v>2050346</v>
+      </c>
+      <c r="G146" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H146" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B147" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D147" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E147" s="13">
+        <v>2</v>
+      </c>
+      <c r="F147" s="14">
+        <v>2050375</v>
+      </c>
+      <c r="G147" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H147" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B148" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E148" s="13">
+        <v>2</v>
+      </c>
+      <c r="F148" s="14">
+        <v>2050388</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B149" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D149" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E149" s="13">
+        <v>2</v>
+      </c>
+      <c r="F149" s="14">
+        <v>2050392</v>
+      </c>
+      <c r="G149" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B150" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D150" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E150" s="13">
+        <v>2</v>
+      </c>
+      <c r="F150" s="14">
+        <v>2050402</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H150" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B151" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E151" s="13">
+        <v>2</v>
+      </c>
+      <c r="F151" s="14">
+        <v>2050405</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H151" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B152" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E152" s="13">
+        <v>2</v>
+      </c>
+      <c r="F152" s="14">
+        <v>1237927</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H152" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B153" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D153" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E153" s="13">
+        <v>2</v>
+      </c>
+      <c r="F153" s="14">
+        <v>1237928</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H153" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B154" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D154" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E154" s="13">
+        <v>2</v>
+      </c>
+      <c r="F154" s="14">
+        <v>1237932</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H154" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B155" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D155" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E155" s="13">
+        <v>2</v>
+      </c>
+      <c r="F155" s="14">
+        <v>1237966</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B156" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D156" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E156" s="13">
+        <v>2</v>
+      </c>
+      <c r="F156" s="14">
+        <v>1237979</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B157" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E157" s="13">
+        <v>2</v>
+      </c>
+      <c r="F157" s="14">
+        <v>2050354</v>
+      </c>
+      <c r="G157" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H157" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B158" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D158" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E158" s="13">
+        <v>2</v>
+      </c>
+      <c r="F158" s="14">
+        <v>2050355</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B159" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D159" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E159" s="13">
+        <v>2</v>
+      </c>
+      <c r="F159" s="14">
+        <v>2050360</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B160" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D160" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E160" s="13">
+        <v>2</v>
+      </c>
+      <c r="F160" s="14">
+        <v>2050381</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B161" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E161" s="13">
+        <v>2</v>
+      </c>
+      <c r="F161" s="14">
+        <v>1230331</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H161" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B162" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D162" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E162" s="13">
+        <v>2</v>
+      </c>
+      <c r="F162" s="14">
+        <v>1230352</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B163" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D163" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E163" s="13">
+        <v>2</v>
+      </c>
+      <c r="F163" s="14">
+        <v>1230357</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H163" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B164" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D164" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E164" s="13">
+        <v>2</v>
+      </c>
+      <c r="F164" s="14">
+        <v>1230359</v>
+      </c>
+      <c r="G164" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H164" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B165" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D165" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E165" s="13">
+        <v>2</v>
+      </c>
+      <c r="F165" s="14">
+        <v>1230380</v>
+      </c>
+      <c r="G165" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H165" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B166" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D166" s="15">
+        <v>187608</v>
+      </c>
+      <c r="E166" s="15">
+        <v>2</v>
+      </c>
+      <c r="F166" s="14">
+        <v>1237900</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B167" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E167" s="13">
+        <v>2</v>
+      </c>
+      <c r="F167" s="14">
+        <v>1237907</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H167" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B168" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D168" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E168" s="13">
+        <v>2</v>
+      </c>
+      <c r="F168" s="14">
+        <v>1237934</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H168" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B169" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D169" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E169" s="13">
+        <v>2</v>
+      </c>
+      <c r="F169" s="14">
+        <v>1237941</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B170" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D170" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E170" s="13">
+        <v>2</v>
+      </c>
+      <c r="F170" s="14">
+        <v>1237944</v>
+      </c>
+      <c r="G170" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H170" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B171" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D171" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E171" s="13">
+        <v>2</v>
+      </c>
+      <c r="F171" s="14">
+        <v>1237988</v>
+      </c>
+      <c r="G171" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B172" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D172" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E172" s="13">
+        <v>2</v>
+      </c>
+      <c r="F172" s="14">
+        <v>1238010</v>
+      </c>
+      <c r="G172" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B173" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D173" s="15">
+        <v>187486</v>
+      </c>
+      <c r="E173" s="15">
+        <v>2</v>
+      </c>
+      <c r="F173" s="14">
+        <v>2047869</v>
+      </c>
+      <c r="G173" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H173" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B174" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E174" s="13">
+        <v>2</v>
+      </c>
+      <c r="F174" s="14">
+        <v>2047879</v>
+      </c>
+      <c r="G174" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B175" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E175" s="13">
+        <v>2</v>
+      </c>
+      <c r="F175" s="14">
+        <v>2047880</v>
+      </c>
+      <c r="G175" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H175" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B176" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D176" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E176" s="13">
+        <v>2</v>
+      </c>
+      <c r="F176" s="14">
+        <v>2047922</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B177" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D177" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E177" s="13">
+        <v>2</v>
+      </c>
+      <c r="F177" s="14">
+        <v>2047923</v>
+      </c>
+      <c r="G177" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H177" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B178" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D178" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E178" s="13">
+        <v>2</v>
+      </c>
+      <c r="F178" s="14">
+        <v>2047932</v>
+      </c>
+      <c r="G178" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H178" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B179" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D179" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E179" s="13">
+        <v>2</v>
+      </c>
+      <c r="F179" s="14">
+        <v>2047933</v>
+      </c>
+      <c r="G179" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H179" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B180" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D180" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E180" s="13">
+        <v>2</v>
+      </c>
+      <c r="F180" s="14">
+        <v>2047936</v>
+      </c>
+      <c r="G180" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H180" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B181" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D181" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E181" s="13">
+        <v>2</v>
+      </c>
+      <c r="F181" s="14">
+        <v>2047937</v>
+      </c>
+      <c r="G181" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H181" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B182" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D182" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E182" s="13">
+        <v>2</v>
+      </c>
+      <c r="F182" s="14">
+        <v>2047978</v>
+      </c>
+      <c r="G182" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H182" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B183" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D183" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E183" s="13">
+        <v>2</v>
+      </c>
+      <c r="F183" s="14">
+        <v>2047979</v>
+      </c>
+      <c r="G183" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H183" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B184" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D184" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E184" s="13">
+        <v>2</v>
+      </c>
+      <c r="F184" s="14">
+        <v>2047997</v>
+      </c>
+      <c r="G184" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H184" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B185" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D185" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E185" s="13">
+        <v>2</v>
+      </c>
+      <c r="F185" s="14">
+        <v>2047998</v>
+      </c>
+      <c r="G185" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H185" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B186" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D186" s="15">
+        <v>187660</v>
+      </c>
+      <c r="E186" s="15">
+        <v>2</v>
+      </c>
+      <c r="F186" s="14">
+        <v>2050334</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H186" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B187" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E187" s="13">
+        <v>2</v>
+      </c>
+      <c r="F187" s="14">
+        <v>2050339</v>
+      </c>
+      <c r="G187" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B188" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D188" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E188" s="13">
+        <v>2</v>
+      </c>
+      <c r="F188" s="14">
+        <v>2050362</v>
+      </c>
+      <c r="G188" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H188" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B189" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D189" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E189" s="13">
+        <v>2</v>
+      </c>
+      <c r="F189" s="14">
+        <v>2050367</v>
+      </c>
+      <c r="G189" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H189" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B190" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D190" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E190" s="13">
+        <v>2</v>
+      </c>
+      <c r="F190" s="14">
+        <v>2050369</v>
+      </c>
+      <c r="G190" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H190" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B191" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D191" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E191" s="13">
+        <v>2</v>
+      </c>
+      <c r="F191" s="14">
+        <v>2050391</v>
+      </c>
+      <c r="G191" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H191" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B192" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D192" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E192" s="13">
+        <v>2</v>
+      </c>
+      <c r="F192" s="14">
+        <v>2050403</v>
+      </c>
+      <c r="G192" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H192" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B193" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D193" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E193" s="13">
+        <v>2</v>
+      </c>
+      <c r="F193" s="14">
+        <v>1231776</v>
+      </c>
+      <c r="G193" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H193" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B194" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D194" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E194" s="13">
+        <v>2</v>
+      </c>
+      <c r="F194" s="14">
+        <v>1231784</v>
+      </c>
+      <c r="G194" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H194" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B195" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D195" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E195" s="13">
+        <v>2</v>
+      </c>
+      <c r="F195" s="14">
+        <v>1231793</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H195" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B196" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D196" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E196" s="13">
+        <v>2</v>
+      </c>
+      <c r="F196" s="14">
+        <v>1231807</v>
+      </c>
+      <c r="G196" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H196" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B197" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D197" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E197" s="13">
+        <v>2</v>
+      </c>
+      <c r="F197" s="14">
+        <v>1231813</v>
+      </c>
+      <c r="G197" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H197" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B198" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D198" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E198" s="13">
+        <v>2</v>
+      </c>
+      <c r="F198" s="14">
+        <v>1231820</v>
+      </c>
+      <c r="G198" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H198" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B199" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D199" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E199" s="13">
+        <v>2</v>
+      </c>
+      <c r="F199" s="14">
+        <v>1231864</v>
+      </c>
+      <c r="G199" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B200" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D200" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E200" s="13">
+        <v>2</v>
+      </c>
+      <c r="F200" s="14">
+        <v>1231871</v>
+      </c>
+      <c r="G200" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H200" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B201" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D201" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E201" s="13">
+        <v>2</v>
+      </c>
+      <c r="F201" s="13">
+        <v>1231878</v>
+      </c>
+      <c r="G201" s="13"/>
+      <c r="H201" s="13"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B202" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D202" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E202" s="13">
+        <v>2</v>
+      </c>
+      <c r="F202" s="14">
+        <v>1231892</v>
+      </c>
+      <c r="G202" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H202" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B203" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D203" s="13">
+        <v>187398</v>
+      </c>
+      <c r="E203" s="13">
+        <v>2</v>
+      </c>
+      <c r="F203" s="14">
+        <v>1231898</v>
+      </c>
+      <c r="G203" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H203" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B204" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D204" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E204" s="13">
+        <v>2</v>
+      </c>
+      <c r="F204" s="14">
+        <v>1234515</v>
+      </c>
+      <c r="G204" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H204" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B205" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D205" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E205" s="13">
+        <v>2</v>
+      </c>
+      <c r="F205" s="14">
+        <v>1234532</v>
+      </c>
+      <c r="G205" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B206" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D206" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E206" s="13">
+        <v>2</v>
+      </c>
+      <c r="F206" s="14">
+        <v>1234539</v>
+      </c>
+      <c r="G206" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H206" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B207" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D207" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E207" s="13">
+        <v>2</v>
+      </c>
+      <c r="F207" s="14">
+        <v>1234544</v>
+      </c>
+      <c r="G207" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H207" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B208" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D208" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E208" s="13">
+        <v>2</v>
+      </c>
+      <c r="F208" s="14">
+        <v>1234547</v>
+      </c>
+      <c r="G208" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H208" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B209" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D209" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E209" s="13">
+        <v>2</v>
+      </c>
+      <c r="F209" s="14">
+        <v>1234553</v>
+      </c>
+      <c r="G209" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H209" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B210" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D210" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E210" s="13">
+        <v>2</v>
+      </c>
+      <c r="F210" s="14">
+        <v>2048307</v>
+      </c>
+      <c r="G210" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H210" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B211" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D211" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E211" s="13">
+        <v>2</v>
+      </c>
+      <c r="F211" s="14">
+        <v>2048308</v>
+      </c>
+      <c r="G211" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H211" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B212" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D212" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E212" s="13">
+        <v>2</v>
+      </c>
+      <c r="F212" s="14">
+        <v>2048341</v>
+      </c>
+      <c r="G212" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H212" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B213" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D213" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E213" s="13">
+        <v>2</v>
+      </c>
+      <c r="F213" s="14">
+        <v>2048342</v>
+      </c>
+      <c r="G213" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H213" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B214" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D214" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E214" s="13">
+        <v>2</v>
+      </c>
+      <c r="F214" s="14">
+        <v>2048355</v>
+      </c>
+      <c r="G214" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H214" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B215" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D215" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E215" s="13">
+        <v>2</v>
+      </c>
+      <c r="F215" s="14">
+        <v>2048356</v>
+      </c>
+      <c r="G215" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H215" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B216" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D216" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E216" s="13">
+        <v>2</v>
+      </c>
+      <c r="F216" s="14">
+        <v>2048366</v>
+      </c>
+      <c r="G216" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H216" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B217" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D217" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E217" s="13">
+        <v>2</v>
+      </c>
+      <c r="F217" s="14">
+        <v>2048367</v>
+      </c>
+      <c r="G217" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H217" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B218" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D218" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E218" s="13">
+        <v>2</v>
+      </c>
+      <c r="F218" s="14">
+        <v>2048372</v>
+      </c>
+      <c r="G218" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H218" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B219" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D219" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E219" s="13">
+        <v>2</v>
+      </c>
+      <c r="F219" s="14">
+        <v>2048373</v>
+      </c>
+      <c r="G219" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H219" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B220" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D220" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E220" s="13">
+        <v>2</v>
+      </c>
+      <c r="F220" s="14">
+        <v>2048384</v>
+      </c>
+      <c r="G220" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H220" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B221" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D221" s="13">
+        <v>187634</v>
+      </c>
+      <c r="E221" s="13">
+        <v>2</v>
+      </c>
+      <c r="F221" s="14">
+        <v>2048385</v>
+      </c>
+      <c r="G221" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B222" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D222" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E222" s="13">
+        <v>2</v>
+      </c>
+      <c r="F222" s="14">
+        <v>1230382</v>
+      </c>
+      <c r="G222" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H222" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B223" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D223" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E223" s="13">
+        <v>2</v>
+      </c>
+      <c r="F223" s="14">
+        <v>1237991</v>
+      </c>
+      <c r="G223" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H223" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B224" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D224" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E224" s="13">
+        <v>2</v>
+      </c>
+      <c r="F224" s="14">
+        <v>2047982</v>
+      </c>
+      <c r="G224" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H224" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B225" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D225" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E225" s="13">
+        <v>2</v>
+      </c>
+      <c r="F225" s="14">
+        <v>2047983</v>
+      </c>
+      <c r="G225" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H225" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B226" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D226" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E226" s="13">
+        <v>2</v>
+      </c>
+      <c r="F226" s="14">
+        <v>2050393</v>
+      </c>
+      <c r="G226" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H226" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B227" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D227" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E227" s="13">
+        <v>2</v>
+      </c>
+      <c r="F227" s="14">
+        <v>1230386</v>
+      </c>
+      <c r="G227" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H227" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B228" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D228" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E228" s="13">
+        <v>2</v>
+      </c>
+      <c r="F228" s="14">
+        <v>1237916</v>
+      </c>
+      <c r="G228" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H228" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B229" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D229" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E229" s="13">
+        <v>2</v>
+      </c>
+      <c r="F229" s="14">
+        <v>1237938</v>
+      </c>
+      <c r="G229" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H229" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B230" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D230" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E230" s="13">
+        <v>2</v>
+      </c>
+      <c r="F230" s="14">
+        <v>1237951</v>
+      </c>
+      <c r="G230" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H230" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B231" s="12">
+        <v>45302</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D231" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E231" s="13">
+        <v>2</v>
+      </c>
+      <c r="F231" s="14">
+        <v>1237995</v>
+      </c>
+      <c r="G231" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H231" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B232" s="12">
+        <v>45303</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D232" s="13">
+        <v>187608</v>
+      </c>
+      <c r="E232" s="13">
+        <v>2</v>
+      </c>
+      <c r="F232" s="14">
+        <v>1238661</v>
+      </c>
+      <c r="G232" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H232" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B233" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D233" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E233" s="13">
+        <v>2</v>
+      </c>
+      <c r="F233" s="14">
+        <v>2047893</v>
+      </c>
+      <c r="G233" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H233" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B234" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D234" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E234" s="13">
+        <v>2</v>
+      </c>
+      <c r="F234" s="14">
+        <v>2047989</v>
+      </c>
+      <c r="G234" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H234" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B235" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D235" s="13">
+        <v>187486</v>
+      </c>
+      <c r="E235" s="13">
+        <v>2</v>
+      </c>
+      <c r="F235" s="14">
+        <v>2047990</v>
+      </c>
+      <c r="G235" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H235" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B236" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D236" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E236" s="13">
+        <v>2</v>
+      </c>
+      <c r="F236" s="14">
+        <v>2050347</v>
+      </c>
+      <c r="G236" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H236" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B237" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D237" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E237" s="13">
+        <v>2</v>
+      </c>
+      <c r="F237" s="14">
+        <v>2050359</v>
+      </c>
+      <c r="G237" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H237" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B238" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D238" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E238" s="13">
+        <v>2</v>
+      </c>
+      <c r="F238" s="14">
+        <v>2050364</v>
+      </c>
+      <c r="G238" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H238" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B239" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D239" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E239" s="13">
+        <v>2</v>
+      </c>
+      <c r="F239" s="14">
+        <v>2050372</v>
+      </c>
+      <c r="G239" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H239" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B240" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D240" s="13">
+        <v>187660</v>
+      </c>
+      <c r="E240" s="13">
+        <v>2</v>
+      </c>
+      <c r="F240" s="14">
+        <v>2050397</v>
+      </c>
+      <c r="G240" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H240" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/planilha_sumare.xlsx
+++ b/planilha_sumare.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Lucas\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C654B-C029-4A91-A595-A2788E1E2C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C0A64-8BBD-4E94-8CD2-CF10FD1A56C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$H$1378</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="282">
   <si>
     <t>Data NF</t>
   </si>
@@ -863,6 +866,15 @@
   <si>
     <t>06.374.419/0002-70</t>
   </si>
+  <si>
+    <t>43.824.439/0001-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15/01/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17/01/24</t>
+  </si>
 </sst>
 </file>
 
@@ -1113,7 +1125,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="79">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1456,6 +1502,53 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1469,6 +1562,121 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1897,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1133"/>
+  <dimension ref="A1:H1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1023" workbookViewId="0">
-      <selection activeCell="J1036" sqref="J1036"/>
+    <sheetView tabSelected="1" topLeftCell="A1123" workbookViewId="0">
+      <selection activeCell="A1134" sqref="A1134:H1169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31359,218 +31567,3179 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1134" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1134" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1134" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1134" s="13">
+        <v>187661</v>
+      </c>
+      <c r="E1134" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1134" s="21">
+        <v>2050419</v>
+      </c>
+      <c r="G1134" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1134" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1135" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1135" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1135" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1135" s="13">
+        <v>187661</v>
+      </c>
+      <c r="E1135" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1135" s="21">
+        <v>2050435</v>
+      </c>
+      <c r="G1135" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1135" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1136" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1136" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1136" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1136" s="13">
+        <v>187661</v>
+      </c>
+      <c r="E1136" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1136" s="21">
+        <v>2050447</v>
+      </c>
+      <c r="G1136" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1136" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1137" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1137" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1137" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1137" s="13">
+        <v>187661</v>
+      </c>
+      <c r="E1137" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1137" s="21">
+        <v>2050460</v>
+      </c>
+      <c r="G1137" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1137" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1138" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1138" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1138" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1138" s="13">
+        <v>187661</v>
+      </c>
+      <c r="E1138" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1138" s="21">
+        <v>2050464</v>
+      </c>
+      <c r="G1138" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1138" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1139" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1139" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1139" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1139" s="13">
+        <v>187661</v>
+      </c>
+      <c r="E1139" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1139" s="23">
+        <v>2050465</v>
+      </c>
+      <c r="G1139" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1139" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1140" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1140" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1140" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1140" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1140" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1140" s="21">
+        <v>2057337</v>
+      </c>
+      <c r="G1140" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1140" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1141" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1141" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1141" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1141" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1141" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1141" s="21">
+        <v>2057380</v>
+      </c>
+      <c r="G1141" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1141" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1142" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1142" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1142" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1142" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1142" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1142" s="21">
+        <v>2057393</v>
+      </c>
+      <c r="G1142" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1142" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1143" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1143" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1143" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1143" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1143" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1143" s="21">
+        <v>2057441</v>
+      </c>
+      <c r="G1143" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1143" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1144" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1144" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1144" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1144" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1144" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1144" s="21">
+        <v>2057463</v>
+      </c>
+      <c r="G1144" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1144" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1145" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1145" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1145" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1145" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1145" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1145" s="21">
+        <v>2057474</v>
+      </c>
+      <c r="G1145" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1145" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1146" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1146" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1146" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1146" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1146" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1146" s="21">
+        <v>1243111</v>
+      </c>
+      <c r="G1146" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1146" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1147" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1147" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1147" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1147" s="13">
+        <v>187953</v>
+      </c>
+      <c r="E1147" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1147" s="21">
+        <v>2055535</v>
+      </c>
+      <c r="G1147" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1147" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1148" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1148" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1148" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1148" s="13">
+        <v>187953</v>
+      </c>
+      <c r="E1148" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1148" s="21">
+        <v>2055536</v>
+      </c>
+      <c r="G1148" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1148" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1149" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1149" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1149" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1149" s="13">
+        <v>187953</v>
+      </c>
+      <c r="E1149" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1149" s="21">
+        <v>2055555</v>
+      </c>
+      <c r="G1149" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1149" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1150" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1150" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1150" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1150" s="13">
+        <v>187953</v>
+      </c>
+      <c r="E1150" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1150" s="21">
+        <v>2055556</v>
+      </c>
+      <c r="G1150" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1150" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1151" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1151" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1151" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1151" s="13">
+        <v>187953</v>
+      </c>
+      <c r="E1151" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1151" s="21">
+        <v>2055561</v>
+      </c>
+      <c r="G1151" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1151" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1152" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1152" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1152" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1152" s="13">
+        <v>187953</v>
+      </c>
+      <c r="E1152" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1152" s="21">
+        <v>2055562</v>
+      </c>
+      <c r="G1152" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1152" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1153" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1153" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1153" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1153" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1153" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1153" s="21">
+        <v>2057261</v>
+      </c>
+      <c r="G1153" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1153" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1154" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1154" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1154" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1154" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1154" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1154" s="21">
+        <v>2057328</v>
+      </c>
+      <c r="G1154" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1154" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1155" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1155" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1155" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1155" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1155" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1155" s="21">
+        <v>2057372</v>
+      </c>
+      <c r="G1155" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1155" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1156" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1156" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1156" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1156" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1156" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1156" s="21">
+        <v>2057381</v>
+      </c>
+      <c r="G1156" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1156" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1157" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1157" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1157" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1157" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1157" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1157" s="21">
+        <v>2057382</v>
+      </c>
+      <c r="G1157" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1157" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1158" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1158" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1158" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1158" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1158" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1158" s="21">
+        <v>2057383</v>
+      </c>
+      <c r="G1158" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1158" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1159" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1159" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1159" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1159" s="13">
+        <v>187957</v>
+      </c>
+      <c r="E1159" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1159" s="21">
+        <v>2059012</v>
+      </c>
+      <c r="G1159" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1159" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1160" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1160" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1160" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1160" s="13">
+        <v>187952</v>
+      </c>
+      <c r="E1160" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1160" s="21">
+        <v>2055492</v>
+      </c>
+      <c r="G1160" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1160" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1161" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1161" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1161" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1161" s="13">
+        <v>187952</v>
+      </c>
+      <c r="E1161" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1161" s="21">
+        <v>2055493</v>
+      </c>
+      <c r="G1161" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1161" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1162" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1162" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1162" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1162" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1162" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1162" s="21">
+        <v>2057284</v>
+      </c>
+      <c r="G1162" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1162" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1163" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1163" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1163" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1163" s="13">
+        <v>187952</v>
+      </c>
+      <c r="E1163" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1163" s="21">
+        <v>2055511</v>
+      </c>
+      <c r="G1163" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1163" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1164" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1164" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1164" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1164" s="13">
+        <v>187952</v>
+      </c>
+      <c r="E1164" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1164" s="21">
+        <v>2055532</v>
+      </c>
+      <c r="G1164" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1164" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1165" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1165" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1165" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1165" s="13">
+        <v>187953</v>
+      </c>
+      <c r="E1165" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1165" s="21">
+        <v>2055559</v>
+      </c>
+      <c r="G1165" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1165" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1166" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1166" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1166" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1166" s="13">
+        <v>187953</v>
+      </c>
+      <c r="E1166" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1166" s="21">
+        <v>2055560</v>
+      </c>
+      <c r="G1166" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1166" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1167" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1167" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1167" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1167" s="13">
+        <v>187953</v>
+      </c>
+      <c r="E1167" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1167" s="21">
+        <v>2055567</v>
+      </c>
+      <c r="G1167" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1167" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1168" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1168" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1168" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1168" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1168" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1168" s="21">
+        <v>2057450</v>
+      </c>
+      <c r="G1168" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1168" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1169" s="20">
+        <v>45315</v>
+      </c>
+      <c r="B1169" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1169" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1169" s="13">
+        <v>188199</v>
+      </c>
+      <c r="E1169" s="13">
+        <v>2</v>
+      </c>
+      <c r="F1169" s="21">
+        <v>1243089</v>
+      </c>
+      <c r="G1169" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1169" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1170" s="20"/>
+      <c r="B1170" s="13"/>
+      <c r="C1170" s="13"/>
+      <c r="D1170" s="13"/>
+      <c r="E1170" s="13"/>
+      <c r="F1170" s="21"/>
+      <c r="G1170" s="22"/>
+      <c r="H1170" s="22"/>
+    </row>
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1171" s="20"/>
+      <c r="B1171" s="13"/>
+      <c r="C1171" s="13"/>
+      <c r="D1171" s="13"/>
+      <c r="E1171" s="13"/>
+      <c r="F1171" s="21"/>
+      <c r="G1171" s="22"/>
+      <c r="H1171" s="22"/>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1172" s="20"/>
+      <c r="B1172" s="13"/>
+      <c r="C1172" s="13"/>
+      <c r="D1172" s="13"/>
+      <c r="E1172" s="13"/>
+      <c r="F1172" s="21"/>
+      <c r="G1172" s="22"/>
+      <c r="H1172" s="22"/>
+    </row>
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1173" s="20"/>
+      <c r="B1173" s="13"/>
+      <c r="C1173" s="13"/>
+      <c r="D1173" s="13"/>
+      <c r="E1173" s="13"/>
+      <c r="F1173" s="21"/>
+      <c r="G1173" s="22"/>
+      <c r="H1173" s="22"/>
+    </row>
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1174" s="20"/>
+      <c r="B1174" s="13"/>
+      <c r="C1174" s="13"/>
+      <c r="D1174" s="13"/>
+      <c r="E1174" s="13"/>
+      <c r="F1174" s="21"/>
+      <c r="G1174" s="22"/>
+      <c r="H1174" s="22"/>
+    </row>
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1175" s="20"/>
+      <c r="B1175" s="13"/>
+      <c r="C1175" s="13"/>
+      <c r="D1175" s="13"/>
+      <c r="E1175" s="13"/>
+      <c r="F1175" s="21"/>
+      <c r="G1175" s="22"/>
+      <c r="H1175" s="22"/>
+    </row>
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1176" s="20"/>
+      <c r="B1176" s="13"/>
+      <c r="C1176" s="13"/>
+      <c r="D1176" s="13"/>
+      <c r="E1176" s="13"/>
+      <c r="F1176" s="21"/>
+      <c r="G1176" s="22"/>
+      <c r="H1176" s="22"/>
+    </row>
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1177" s="20"/>
+      <c r="B1177" s="13"/>
+      <c r="C1177" s="13"/>
+      <c r="D1177" s="13"/>
+      <c r="E1177" s="13"/>
+      <c r="F1177" s="21"/>
+      <c r="G1177" s="22"/>
+      <c r="H1177" s="22"/>
+    </row>
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1178" s="20"/>
+      <c r="B1178" s="13"/>
+      <c r="C1178" s="13"/>
+      <c r="D1178" s="13"/>
+      <c r="E1178" s="13"/>
+      <c r="F1178" s="21"/>
+      <c r="G1178" s="22"/>
+      <c r="H1178" s="22"/>
+    </row>
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1179" s="20"/>
+      <c r="B1179" s="13"/>
+      <c r="C1179" s="13"/>
+      <c r="D1179" s="13"/>
+      <c r="E1179" s="13"/>
+      <c r="F1179" s="21"/>
+      <c r="G1179" s="22"/>
+      <c r="H1179" s="22"/>
+    </row>
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1180" s="20"/>
+      <c r="B1180" s="13"/>
+      <c r="C1180" s="13"/>
+      <c r="D1180" s="13"/>
+      <c r="E1180" s="13"/>
+      <c r="F1180" s="21"/>
+      <c r="G1180" s="22"/>
+      <c r="H1180" s="22"/>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1181" s="20"/>
+      <c r="B1181" s="13"/>
+      <c r="C1181" s="13"/>
+      <c r="D1181" s="13"/>
+      <c r="E1181" s="13"/>
+      <c r="F1181" s="21"/>
+      <c r="G1181" s="22"/>
+      <c r="H1181" s="22"/>
+    </row>
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1182" s="20"/>
+      <c r="B1182" s="13"/>
+      <c r="C1182" s="13"/>
+      <c r="D1182" s="13"/>
+      <c r="E1182" s="13"/>
+      <c r="F1182" s="21"/>
+      <c r="G1182" s="22"/>
+      <c r="H1182" s="22"/>
+    </row>
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1183" s="20"/>
+      <c r="B1183" s="13"/>
+      <c r="C1183" s="13"/>
+      <c r="D1183" s="13"/>
+      <c r="E1183" s="13"/>
+      <c r="F1183" s="21"/>
+      <c r="G1183" s="22"/>
+      <c r="H1183" s="22"/>
+    </row>
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1184" s="20"/>
+      <c r="B1184" s="13"/>
+      <c r="C1184" s="13"/>
+      <c r="D1184" s="13"/>
+      <c r="E1184" s="13"/>
+      <c r="F1184" s="21"/>
+      <c r="G1184" s="22"/>
+      <c r="H1184" s="22"/>
+    </row>
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1185" s="20"/>
+      <c r="B1185" s="13"/>
+      <c r="C1185" s="13"/>
+      <c r="D1185" s="13"/>
+      <c r="E1185" s="13"/>
+      <c r="F1185" s="21"/>
+      <c r="G1185" s="22"/>
+      <c r="H1185" s="22"/>
+    </row>
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1186" s="20"/>
+      <c r="B1186" s="13"/>
+      <c r="C1186" s="13"/>
+      <c r="D1186" s="13"/>
+      <c r="E1186" s="13"/>
+      <c r="F1186" s="21"/>
+      <c r="G1186" s="22"/>
+      <c r="H1186" s="22"/>
+    </row>
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1187" s="20"/>
+      <c r="B1187" s="13"/>
+      <c r="C1187" s="13"/>
+      <c r="D1187" s="13"/>
+      <c r="E1187" s="13"/>
+      <c r="F1187" s="21"/>
+      <c r="G1187" s="22"/>
+      <c r="H1187" s="22"/>
+    </row>
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1188" s="20"/>
+      <c r="B1188" s="13"/>
+      <c r="C1188" s="13"/>
+      <c r="D1188" s="13"/>
+      <c r="E1188" s="13"/>
+      <c r="F1188" s="21"/>
+      <c r="G1188" s="22"/>
+      <c r="H1188" s="22"/>
+    </row>
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1189" s="20"/>
+      <c r="B1189" s="13"/>
+      <c r="C1189" s="13"/>
+      <c r="D1189" s="13"/>
+      <c r="E1189" s="13"/>
+      <c r="F1189" s="21"/>
+      <c r="G1189" s="22"/>
+      <c r="H1189" s="22"/>
+    </row>
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1190" s="20"/>
+      <c r="B1190" s="13"/>
+      <c r="C1190" s="13"/>
+      <c r="D1190" s="13"/>
+      <c r="E1190" s="13"/>
+      <c r="F1190" s="21"/>
+      <c r="G1190" s="22"/>
+      <c r="H1190" s="22"/>
+    </row>
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1191" s="20"/>
+      <c r="B1191" s="13"/>
+      <c r="C1191" s="13"/>
+      <c r="D1191" s="13"/>
+      <c r="E1191" s="13"/>
+      <c r="F1191" s="21"/>
+      <c r="G1191" s="22"/>
+      <c r="H1191" s="22"/>
+    </row>
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1192" s="20"/>
+      <c r="B1192" s="13"/>
+      <c r="C1192" s="13"/>
+      <c r="D1192" s="13"/>
+      <c r="E1192" s="13"/>
+      <c r="F1192" s="21"/>
+      <c r="G1192" s="22"/>
+      <c r="H1192" s="22"/>
+    </row>
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1193" s="20"/>
+      <c r="B1193" s="13"/>
+      <c r="C1193" s="13"/>
+      <c r="D1193" s="13"/>
+      <c r="E1193" s="13"/>
+      <c r="F1193" s="21"/>
+      <c r="G1193" s="22"/>
+      <c r="H1193" s="22"/>
+    </row>
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1194" s="20"/>
+      <c r="B1194" s="13"/>
+      <c r="C1194" s="13"/>
+      <c r="D1194" s="13"/>
+      <c r="E1194" s="13"/>
+      <c r="F1194" s="21"/>
+      <c r="G1194" s="22"/>
+      <c r="H1194" s="22"/>
+    </row>
+    <row r="1195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1195" s="20"/>
+      <c r="B1195" s="13"/>
+      <c r="C1195" s="13"/>
+      <c r="D1195" s="13"/>
+      <c r="E1195" s="13"/>
+      <c r="F1195" s="21"/>
+      <c r="G1195" s="22"/>
+      <c r="H1195" s="22"/>
+    </row>
+    <row r="1196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1196" s="20"/>
+      <c r="B1196" s="13"/>
+      <c r="C1196" s="13"/>
+      <c r="D1196" s="13"/>
+      <c r="E1196" s="13"/>
+      <c r="F1196" s="21"/>
+      <c r="G1196" s="22"/>
+      <c r="H1196" s="22"/>
+    </row>
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1197" s="20"/>
+      <c r="B1197" s="13"/>
+      <c r="C1197" s="13"/>
+      <c r="D1197" s="13"/>
+      <c r="E1197" s="13"/>
+      <c r="F1197" s="21"/>
+      <c r="G1197" s="22"/>
+      <c r="H1197" s="22"/>
+    </row>
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1198" s="20"/>
+      <c r="B1198" s="13"/>
+      <c r="C1198" s="13"/>
+      <c r="D1198" s="13"/>
+      <c r="E1198" s="13"/>
+      <c r="F1198" s="21"/>
+      <c r="G1198" s="22"/>
+      <c r="H1198" s="22"/>
+    </row>
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1199" s="20"/>
+      <c r="B1199" s="13"/>
+      <c r="C1199" s="13"/>
+      <c r="D1199" s="13"/>
+      <c r="E1199" s="13"/>
+      <c r="F1199" s="21"/>
+      <c r="G1199" s="22"/>
+      <c r="H1199" s="22"/>
+    </row>
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1200" s="20"/>
+      <c r="B1200" s="13"/>
+      <c r="C1200" s="13"/>
+      <c r="D1200" s="13"/>
+      <c r="E1200" s="13"/>
+      <c r="F1200" s="21"/>
+      <c r="G1200" s="22"/>
+      <c r="H1200" s="22"/>
+    </row>
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1201" s="20"/>
+      <c r="B1201" s="13"/>
+      <c r="C1201" s="13"/>
+      <c r="D1201" s="13"/>
+      <c r="E1201" s="13"/>
+      <c r="F1201" s="21"/>
+      <c r="G1201" s="22"/>
+      <c r="H1201" s="22"/>
+    </row>
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1202" s="20"/>
+      <c r="B1202" s="13"/>
+      <c r="C1202" s="13"/>
+      <c r="D1202" s="13"/>
+      <c r="E1202" s="13"/>
+      <c r="F1202" s="21"/>
+      <c r="G1202" s="22"/>
+      <c r="H1202" s="22"/>
+    </row>
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1203" s="20"/>
+      <c r="B1203" s="13"/>
+      <c r="C1203" s="13"/>
+      <c r="D1203" s="13"/>
+      <c r="E1203" s="13"/>
+      <c r="F1203" s="21"/>
+      <c r="G1203" s="22"/>
+      <c r="H1203" s="22"/>
+    </row>
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1204" s="20"/>
+      <c r="B1204" s="13"/>
+      <c r="C1204" s="13"/>
+      <c r="D1204" s="13"/>
+      <c r="E1204" s="13"/>
+      <c r="F1204" s="21"/>
+      <c r="G1204" s="22"/>
+      <c r="H1204" s="22"/>
+    </row>
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1205" s="20"/>
+      <c r="B1205" s="13"/>
+      <c r="C1205" s="13"/>
+      <c r="D1205" s="13"/>
+      <c r="E1205" s="13"/>
+      <c r="F1205" s="21"/>
+      <c r="G1205" s="22"/>
+      <c r="H1205" s="22"/>
+    </row>
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1206" s="20"/>
+      <c r="B1206" s="13"/>
+      <c r="C1206" s="13"/>
+      <c r="D1206" s="13"/>
+      <c r="E1206" s="13"/>
+      <c r="F1206" s="21"/>
+      <c r="G1206" s="22"/>
+      <c r="H1206" s="22"/>
+    </row>
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1207" s="20"/>
+      <c r="B1207" s="13"/>
+      <c r="C1207" s="13"/>
+      <c r="D1207" s="13"/>
+      <c r="E1207" s="13"/>
+      <c r="F1207" s="21"/>
+      <c r="G1207" s="22"/>
+      <c r="H1207" s="22"/>
+    </row>
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1208" s="20"/>
+      <c r="B1208" s="13"/>
+      <c r="C1208" s="13"/>
+      <c r="D1208" s="13"/>
+      <c r="E1208" s="13"/>
+      <c r="F1208" s="21"/>
+      <c r="G1208" s="22"/>
+      <c r="H1208" s="22"/>
+    </row>
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1209" s="20"/>
+      <c r="B1209" s="13"/>
+      <c r="C1209" s="13"/>
+      <c r="D1209" s="13"/>
+      <c r="E1209" s="13"/>
+      <c r="F1209" s="21"/>
+      <c r="G1209" s="22"/>
+      <c r="H1209" s="22"/>
+    </row>
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1210" s="20"/>
+      <c r="B1210" s="13"/>
+      <c r="C1210" s="13"/>
+      <c r="D1210" s="13"/>
+      <c r="E1210" s="13"/>
+      <c r="F1210" s="21"/>
+      <c r="G1210" s="22"/>
+      <c r="H1210" s="22"/>
+    </row>
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1211" s="20"/>
+      <c r="B1211" s="13"/>
+      <c r="C1211" s="13"/>
+      <c r="D1211" s="13"/>
+      <c r="E1211" s="13"/>
+      <c r="F1211" s="21"/>
+      <c r="G1211" s="22"/>
+      <c r="H1211" s="22"/>
+    </row>
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1212" s="20"/>
+      <c r="B1212" s="13"/>
+      <c r="C1212" s="13"/>
+      <c r="D1212" s="13"/>
+      <c r="E1212" s="13"/>
+      <c r="F1212" s="21"/>
+      <c r="G1212" s="22"/>
+      <c r="H1212" s="22"/>
+    </row>
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1213" s="20"/>
+      <c r="B1213" s="13"/>
+      <c r="C1213" s="13"/>
+      <c r="D1213" s="13"/>
+      <c r="E1213" s="13"/>
+      <c r="F1213" s="21"/>
+      <c r="G1213" s="22"/>
+      <c r="H1213" s="22"/>
+    </row>
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1214" s="20"/>
+      <c r="B1214" s="13"/>
+      <c r="C1214" s="13"/>
+      <c r="D1214" s="13"/>
+      <c r="E1214" s="13"/>
+      <c r="F1214" s="21"/>
+      <c r="G1214" s="22"/>
+      <c r="H1214" s="22"/>
+    </row>
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1215" s="20"/>
+      <c r="B1215" s="13"/>
+      <c r="C1215" s="13"/>
+      <c r="D1215" s="13"/>
+      <c r="E1215" s="13"/>
+      <c r="F1215" s="21"/>
+      <c r="G1215" s="22"/>
+      <c r="H1215" s="22"/>
+    </row>
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1216" s="20"/>
+      <c r="B1216" s="13"/>
+      <c r="C1216" s="13"/>
+      <c r="D1216" s="13"/>
+      <c r="E1216" s="13"/>
+      <c r="F1216" s="21"/>
+      <c r="G1216" s="22"/>
+      <c r="H1216" s="22"/>
+    </row>
+    <row r="1217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1217" s="20"/>
+      <c r="B1217" s="13"/>
+      <c r="C1217" s="13"/>
+      <c r="D1217" s="13"/>
+      <c r="E1217" s="13"/>
+      <c r="F1217" s="21"/>
+      <c r="G1217" s="22"/>
+      <c r="H1217" s="22"/>
+    </row>
+    <row r="1218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1218" s="20"/>
+      <c r="B1218" s="13"/>
+      <c r="C1218" s="13"/>
+      <c r="D1218" s="13"/>
+      <c r="E1218" s="13"/>
+      <c r="F1218" s="21"/>
+      <c r="G1218" s="22"/>
+      <c r="H1218" s="22"/>
+    </row>
+    <row r="1219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1219" s="20"/>
+      <c r="B1219" s="13"/>
+      <c r="C1219" s="13"/>
+      <c r="D1219" s="13"/>
+      <c r="E1219" s="13"/>
+      <c r="F1219" s="21"/>
+      <c r="G1219" s="22"/>
+      <c r="H1219" s="22"/>
+    </row>
+    <row r="1220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1220" s="20"/>
+      <c r="B1220" s="13"/>
+      <c r="C1220" s="13"/>
+      <c r="D1220" s="13"/>
+      <c r="E1220" s="13"/>
+      <c r="F1220" s="21"/>
+      <c r="G1220" s="22"/>
+      <c r="H1220" s="22"/>
+    </row>
+    <row r="1221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1221" s="20"/>
+      <c r="B1221" s="13"/>
+      <c r="C1221" s="13"/>
+      <c r="D1221" s="13"/>
+      <c r="E1221" s="13"/>
+      <c r="F1221" s="21"/>
+      <c r="G1221" s="22"/>
+      <c r="H1221" s="22"/>
+    </row>
+    <row r="1222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1222" s="20"/>
+      <c r="B1222" s="13"/>
+      <c r="C1222" s="13"/>
+      <c r="D1222" s="13"/>
+      <c r="E1222" s="13"/>
+      <c r="F1222" s="21"/>
+      <c r="G1222" s="22"/>
+      <c r="H1222" s="22"/>
+    </row>
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1223" s="20"/>
+      <c r="B1223" s="13"/>
+      <c r="C1223" s="13"/>
+      <c r="D1223" s="13"/>
+      <c r="E1223" s="13"/>
+      <c r="F1223" s="21"/>
+      <c r="G1223" s="22"/>
+      <c r="H1223" s="22"/>
+    </row>
+    <row r="1224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1224" s="20"/>
+      <c r="B1224" s="13"/>
+      <c r="C1224" s="13"/>
+      <c r="D1224" s="13"/>
+      <c r="E1224" s="13"/>
+      <c r="F1224" s="21"/>
+      <c r="G1224" s="22"/>
+      <c r="H1224" s="22"/>
+    </row>
+    <row r="1225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1225" s="20"/>
+      <c r="B1225" s="13"/>
+      <c r="C1225" s="13"/>
+      <c r="D1225" s="13"/>
+      <c r="E1225" s="13"/>
+      <c r="F1225" s="21"/>
+      <c r="G1225" s="22"/>
+      <c r="H1225" s="22"/>
+    </row>
+    <row r="1226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1226" s="20"/>
+      <c r="B1226" s="13"/>
+      <c r="C1226" s="13"/>
+      <c r="D1226" s="13"/>
+      <c r="E1226" s="13"/>
+      <c r="F1226" s="21"/>
+      <c r="G1226" s="22"/>
+      <c r="H1226" s="22"/>
+    </row>
+    <row r="1227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1227" s="20"/>
+      <c r="B1227" s="13"/>
+      <c r="C1227" s="13"/>
+      <c r="D1227" s="13"/>
+      <c r="E1227" s="13"/>
+      <c r="F1227" s="21"/>
+      <c r="G1227" s="22"/>
+      <c r="H1227" s="22"/>
+    </row>
+    <row r="1228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1228" s="20"/>
+      <c r="B1228" s="13"/>
+      <c r="C1228" s="13"/>
+      <c r="D1228" s="13"/>
+      <c r="E1228" s="13"/>
+      <c r="F1228" s="21"/>
+      <c r="G1228" s="22"/>
+      <c r="H1228" s="22"/>
+    </row>
+    <row r="1229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1229" s="20"/>
+      <c r="B1229" s="13"/>
+      <c r="C1229" s="13"/>
+      <c r="D1229" s="13"/>
+      <c r="E1229" s="13"/>
+      <c r="F1229" s="21"/>
+      <c r="G1229" s="22"/>
+      <c r="H1229" s="22"/>
+    </row>
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1230" s="20"/>
+      <c r="B1230" s="13"/>
+      <c r="C1230" s="13"/>
+      <c r="D1230" s="13"/>
+      <c r="E1230" s="13"/>
+      <c r="F1230" s="21"/>
+      <c r="G1230" s="22"/>
+      <c r="H1230" s="22"/>
+    </row>
+    <row r="1231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1231" s="20"/>
+      <c r="B1231" s="13"/>
+      <c r="C1231" s="13"/>
+      <c r="D1231" s="13"/>
+      <c r="E1231" s="13"/>
+      <c r="F1231" s="21"/>
+      <c r="G1231" s="22"/>
+      <c r="H1231" s="22"/>
+    </row>
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1232" s="20"/>
+      <c r="B1232" s="13"/>
+      <c r="C1232" s="13"/>
+      <c r="D1232" s="13"/>
+      <c r="E1232" s="13"/>
+      <c r="F1232" s="21"/>
+      <c r="G1232" s="22"/>
+      <c r="H1232" s="22"/>
+    </row>
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1233" s="20"/>
+      <c r="B1233" s="13"/>
+      <c r="C1233" s="13"/>
+      <c r="D1233" s="13"/>
+      <c r="E1233" s="13"/>
+      <c r="F1233" s="21"/>
+      <c r="G1233" s="22"/>
+      <c r="H1233" s="22"/>
+    </row>
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1234" s="20"/>
+      <c r="B1234" s="13"/>
+      <c r="C1234" s="13"/>
+      <c r="D1234" s="13"/>
+      <c r="E1234" s="13"/>
+      <c r="F1234" s="21"/>
+      <c r="G1234" s="22"/>
+      <c r="H1234" s="22"/>
+    </row>
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1235" s="20"/>
+      <c r="B1235" s="13"/>
+      <c r="C1235" s="13"/>
+      <c r="D1235" s="13"/>
+      <c r="E1235" s="13"/>
+      <c r="F1235" s="21"/>
+      <c r="G1235" s="22"/>
+      <c r="H1235" s="22"/>
+    </row>
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1236" s="20"/>
+      <c r="B1236" s="13"/>
+      <c r="C1236" s="13"/>
+      <c r="D1236" s="13"/>
+      <c r="E1236" s="13"/>
+      <c r="F1236" s="21"/>
+      <c r="G1236" s="22"/>
+      <c r="H1236" s="22"/>
+    </row>
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1237" s="20"/>
+      <c r="B1237" s="13"/>
+      <c r="C1237" s="13"/>
+      <c r="D1237" s="13"/>
+      <c r="E1237" s="13"/>
+      <c r="F1237" s="21"/>
+      <c r="G1237" s="22"/>
+      <c r="H1237" s="22"/>
+    </row>
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1238" s="20"/>
+      <c r="B1238" s="13"/>
+      <c r="C1238" s="13"/>
+      <c r="D1238" s="13"/>
+      <c r="E1238" s="13"/>
+      <c r="F1238" s="21"/>
+      <c r="G1238" s="22"/>
+      <c r="H1238" s="22"/>
+    </row>
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1239" s="20"/>
+      <c r="B1239" s="13"/>
+      <c r="C1239" s="13"/>
+      <c r="D1239" s="13"/>
+      <c r="E1239" s="13"/>
+      <c r="F1239" s="21"/>
+      <c r="G1239" s="22"/>
+      <c r="H1239" s="22"/>
+    </row>
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1240" s="20"/>
+      <c r="B1240" s="13"/>
+      <c r="C1240" s="13"/>
+      <c r="D1240" s="13"/>
+      <c r="E1240" s="13"/>
+      <c r="F1240" s="21"/>
+      <c r="G1240" s="22"/>
+      <c r="H1240" s="22"/>
+    </row>
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1241" s="20"/>
+      <c r="B1241" s="13"/>
+      <c r="C1241" s="13"/>
+      <c r="D1241" s="13"/>
+      <c r="E1241" s="13"/>
+      <c r="F1241" s="21"/>
+      <c r="G1241" s="22"/>
+      <c r="H1241" s="22"/>
+    </row>
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1242" s="20"/>
+      <c r="B1242" s="13"/>
+      <c r="C1242" s="13"/>
+      <c r="D1242" s="13"/>
+      <c r="E1242" s="13"/>
+      <c r="F1242" s="21"/>
+      <c r="G1242" s="22"/>
+      <c r="H1242" s="22"/>
+    </row>
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1243" s="20"/>
+      <c r="B1243" s="13"/>
+      <c r="C1243" s="13"/>
+      <c r="D1243" s="13"/>
+      <c r="E1243" s="13"/>
+      <c r="F1243" s="21"/>
+      <c r="G1243" s="22"/>
+      <c r="H1243" s="22"/>
+    </row>
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1244" s="20"/>
+      <c r="B1244" s="13"/>
+      <c r="C1244" s="13"/>
+      <c r="D1244" s="13"/>
+      <c r="E1244" s="13"/>
+      <c r="F1244" s="21"/>
+      <c r="G1244" s="22"/>
+      <c r="H1244" s="22"/>
+    </row>
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1245" s="20"/>
+      <c r="B1245" s="13"/>
+      <c r="C1245" s="13"/>
+      <c r="D1245" s="13"/>
+      <c r="E1245" s="13"/>
+      <c r="F1245" s="21"/>
+      <c r="G1245" s="22"/>
+      <c r="H1245" s="22"/>
+    </row>
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1246" s="20"/>
+      <c r="B1246" s="13"/>
+      <c r="C1246" s="13"/>
+      <c r="D1246" s="13"/>
+      <c r="E1246" s="13"/>
+      <c r="F1246" s="21"/>
+      <c r="G1246" s="22"/>
+      <c r="H1246" s="22"/>
+    </row>
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1247" s="20"/>
+      <c r="B1247" s="13"/>
+      <c r="C1247" s="13"/>
+      <c r="D1247" s="13"/>
+      <c r="E1247" s="13"/>
+      <c r="F1247" s="21"/>
+      <c r="G1247" s="22"/>
+      <c r="H1247" s="22"/>
+    </row>
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1248" s="20"/>
+      <c r="B1248" s="13"/>
+      <c r="C1248" s="13"/>
+      <c r="D1248" s="13"/>
+      <c r="E1248" s="13"/>
+      <c r="F1248" s="21"/>
+      <c r="G1248" s="22"/>
+      <c r="H1248" s="22"/>
+    </row>
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1249" s="20"/>
+      <c r="B1249" s="13"/>
+      <c r="C1249" s="13"/>
+      <c r="D1249" s="13"/>
+      <c r="E1249" s="13"/>
+      <c r="F1249" s="21"/>
+      <c r="G1249" s="22"/>
+      <c r="H1249" s="22"/>
+    </row>
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1250" s="20"/>
+      <c r="B1250" s="13"/>
+      <c r="C1250" s="13"/>
+      <c r="D1250" s="13"/>
+      <c r="E1250" s="13"/>
+      <c r="F1250" s="21"/>
+      <c r="G1250" s="22"/>
+      <c r="H1250" s="22"/>
+    </row>
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1251" s="20"/>
+      <c r="B1251" s="13"/>
+      <c r="C1251" s="13"/>
+      <c r="D1251" s="13"/>
+      <c r="E1251" s="13"/>
+      <c r="F1251" s="21"/>
+      <c r="G1251" s="22"/>
+      <c r="H1251" s="22"/>
+    </row>
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1252" s="20"/>
+      <c r="B1252" s="13"/>
+      <c r="C1252" s="13"/>
+      <c r="D1252" s="13"/>
+      <c r="E1252" s="13"/>
+      <c r="F1252" s="21"/>
+      <c r="G1252" s="22"/>
+      <c r="H1252" s="22"/>
+    </row>
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1253" s="20"/>
+      <c r="B1253" s="13"/>
+      <c r="C1253" s="13"/>
+      <c r="D1253" s="13"/>
+      <c r="E1253" s="13"/>
+      <c r="F1253" s="21"/>
+      <c r="G1253" s="22"/>
+      <c r="H1253" s="22"/>
+    </row>
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1254" s="20"/>
+      <c r="B1254" s="13"/>
+      <c r="C1254" s="13"/>
+      <c r="D1254" s="13"/>
+      <c r="E1254" s="13"/>
+      <c r="F1254" s="21"/>
+      <c r="G1254" s="22"/>
+      <c r="H1254" s="22"/>
+    </row>
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1255" s="20"/>
+      <c r="B1255" s="13"/>
+      <c r="C1255" s="13"/>
+      <c r="D1255" s="13"/>
+      <c r="E1255" s="13"/>
+      <c r="F1255" s="21"/>
+      <c r="G1255" s="22"/>
+      <c r="H1255" s="22"/>
+    </row>
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1256" s="20"/>
+      <c r="B1256" s="13"/>
+      <c r="C1256" s="13"/>
+      <c r="D1256" s="13"/>
+      <c r="E1256" s="13"/>
+      <c r="F1256" s="21"/>
+      <c r="G1256" s="22"/>
+      <c r="H1256" s="22"/>
+    </row>
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1257" s="20"/>
+      <c r="B1257" s="13"/>
+      <c r="C1257" s="13"/>
+      <c r="D1257" s="13"/>
+      <c r="E1257" s="13"/>
+      <c r="F1257" s="21"/>
+      <c r="G1257" s="22"/>
+      <c r="H1257" s="22"/>
+    </row>
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1258" s="20"/>
+      <c r="B1258" s="13"/>
+      <c r="C1258" s="13"/>
+      <c r="D1258" s="13"/>
+      <c r="E1258" s="13"/>
+      <c r="F1258" s="21"/>
+      <c r="G1258" s="22"/>
+      <c r="H1258" s="22"/>
+    </row>
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1259" s="20"/>
+      <c r="B1259" s="13"/>
+      <c r="C1259" s="13"/>
+      <c r="D1259" s="13"/>
+      <c r="E1259" s="13"/>
+      <c r="F1259" s="21"/>
+      <c r="G1259" s="22"/>
+      <c r="H1259" s="22"/>
+    </row>
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1260" s="20"/>
+      <c r="B1260" s="13"/>
+      <c r="C1260" s="13"/>
+      <c r="D1260" s="13"/>
+      <c r="E1260" s="13"/>
+      <c r="F1260" s="21"/>
+      <c r="G1260" s="22"/>
+      <c r="H1260" s="22"/>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1261" s="20"/>
+      <c r="B1261" s="13"/>
+      <c r="C1261" s="13"/>
+      <c r="D1261" s="13"/>
+      <c r="E1261" s="13"/>
+      <c r="F1261" s="21"/>
+      <c r="G1261" s="22"/>
+      <c r="H1261" s="22"/>
+    </row>
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1262" s="20"/>
+      <c r="B1262" s="13"/>
+      <c r="C1262" s="13"/>
+      <c r="D1262" s="13"/>
+      <c r="E1262" s="13"/>
+      <c r="F1262" s="21"/>
+      <c r="G1262" s="22"/>
+      <c r="H1262" s="22"/>
+    </row>
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1263" s="20"/>
+      <c r="B1263" s="13"/>
+      <c r="C1263" s="13"/>
+      <c r="D1263" s="13"/>
+      <c r="E1263" s="13"/>
+      <c r="F1263" s="21"/>
+      <c r="G1263" s="22"/>
+      <c r="H1263" s="22"/>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1264" s="20"/>
+      <c r="B1264" s="13"/>
+      <c r="C1264" s="13"/>
+      <c r="D1264" s="13"/>
+      <c r="E1264" s="13"/>
+      <c r="F1264" s="21"/>
+      <c r="G1264" s="22"/>
+      <c r="H1264" s="22"/>
+    </row>
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1265" s="20"/>
+      <c r="B1265" s="13"/>
+      <c r="C1265" s="13"/>
+      <c r="D1265" s="13"/>
+      <c r="E1265" s="13"/>
+      <c r="F1265" s="21"/>
+      <c r="G1265" s="22"/>
+      <c r="H1265" s="22"/>
+    </row>
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1266" s="20"/>
+      <c r="B1266" s="13"/>
+      <c r="C1266" s="13"/>
+      <c r="D1266" s="13"/>
+      <c r="E1266" s="13"/>
+      <c r="F1266" s="21"/>
+      <c r="G1266" s="22"/>
+      <c r="H1266" s="22"/>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1267" s="20"/>
+      <c r="B1267" s="13"/>
+      <c r="C1267" s="13"/>
+      <c r="D1267" s="13"/>
+      <c r="E1267" s="13"/>
+      <c r="F1267" s="21"/>
+      <c r="G1267" s="22"/>
+      <c r="H1267" s="22"/>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1268" s="20"/>
+      <c r="B1268" s="13"/>
+      <c r="C1268" s="13"/>
+      <c r="D1268" s="13"/>
+      <c r="E1268" s="13"/>
+      <c r="F1268" s="21"/>
+      <c r="G1268" s="22"/>
+      <c r="H1268" s="22"/>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1269" s="20"/>
+      <c r="B1269" s="13"/>
+      <c r="C1269" s="13"/>
+      <c r="D1269" s="13"/>
+      <c r="E1269" s="13"/>
+      <c r="F1269" s="21"/>
+      <c r="G1269" s="22"/>
+      <c r="H1269" s="22"/>
+    </row>
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1270" s="20"/>
+      <c r="B1270" s="13"/>
+      <c r="C1270" s="13"/>
+      <c r="D1270" s="13"/>
+      <c r="E1270" s="13"/>
+      <c r="F1270" s="21"/>
+      <c r="G1270" s="22"/>
+      <c r="H1270" s="22"/>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1271" s="20"/>
+      <c r="B1271" s="13"/>
+      <c r="C1271" s="13"/>
+      <c r="D1271" s="13"/>
+      <c r="E1271" s="13"/>
+      <c r="F1271" s="21"/>
+      <c r="G1271" s="22"/>
+      <c r="H1271" s="22"/>
+    </row>
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1272" s="20"/>
+      <c r="B1272" s="13"/>
+      <c r="C1272" s="13"/>
+      <c r="D1272" s="13"/>
+      <c r="E1272" s="13"/>
+      <c r="F1272" s="21"/>
+      <c r="G1272" s="22"/>
+      <c r="H1272" s="22"/>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1273" s="20"/>
+      <c r="B1273" s="13"/>
+      <c r="C1273" s="13"/>
+      <c r="D1273" s="13"/>
+      <c r="E1273" s="13"/>
+      <c r="F1273" s="21"/>
+      <c r="G1273" s="22"/>
+      <c r="H1273" s="22"/>
+    </row>
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1274" s="20"/>
+      <c r="B1274" s="13"/>
+      <c r="C1274" s="13"/>
+      <c r="D1274" s="13"/>
+      <c r="E1274" s="13"/>
+      <c r="F1274" s="21"/>
+      <c r="G1274" s="22"/>
+      <c r="H1274" s="22"/>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1275" s="20"/>
+      <c r="B1275" s="13"/>
+      <c r="C1275" s="13"/>
+      <c r="D1275" s="13"/>
+      <c r="E1275" s="13"/>
+      <c r="F1275" s="21"/>
+      <c r="G1275" s="22"/>
+      <c r="H1275" s="22"/>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1276" s="20"/>
+      <c r="B1276" s="13"/>
+      <c r="C1276" s="13"/>
+      <c r="D1276" s="13"/>
+      <c r="E1276" s="13"/>
+      <c r="F1276" s="21"/>
+      <c r="G1276" s="22"/>
+      <c r="H1276" s="22"/>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1277" s="20"/>
+      <c r="B1277" s="13"/>
+      <c r="C1277" s="13"/>
+      <c r="D1277" s="13"/>
+      <c r="E1277" s="13"/>
+      <c r="F1277" s="21"/>
+      <c r="G1277" s="22"/>
+      <c r="H1277" s="22"/>
+    </row>
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1278" s="20"/>
+      <c r="B1278" s="13"/>
+      <c r="C1278" s="13"/>
+      <c r="D1278" s="13"/>
+      <c r="E1278" s="13"/>
+      <c r="F1278" s="21"/>
+      <c r="G1278" s="22"/>
+      <c r="H1278" s="22"/>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1279" s="20"/>
+      <c r="B1279" s="13"/>
+      <c r="C1279" s="13"/>
+      <c r="D1279" s="13"/>
+      <c r="E1279" s="13"/>
+      <c r="F1279" s="21"/>
+      <c r="G1279" s="22"/>
+      <c r="H1279" s="22"/>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1280" s="20"/>
+      <c r="B1280" s="13"/>
+      <c r="C1280" s="13"/>
+      <c r="D1280" s="13"/>
+      <c r="E1280" s="13"/>
+      <c r="F1280" s="21"/>
+      <c r="G1280" s="22"/>
+      <c r="H1280" s="22"/>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1281" s="20"/>
+      <c r="B1281" s="13"/>
+      <c r="C1281" s="13"/>
+      <c r="D1281" s="13"/>
+      <c r="E1281" s="13"/>
+      <c r="F1281" s="21"/>
+      <c r="G1281" s="22"/>
+      <c r="H1281" s="22"/>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1282" s="20"/>
+      <c r="B1282" s="13"/>
+      <c r="C1282" s="13"/>
+      <c r="D1282" s="13"/>
+      <c r="E1282" s="13"/>
+      <c r="F1282" s="21"/>
+      <c r="G1282" s="22"/>
+      <c r="H1282" s="22"/>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1283" s="20"/>
+      <c r="B1283" s="13"/>
+      <c r="C1283" s="13"/>
+      <c r="D1283" s="13"/>
+      <c r="E1283" s="13"/>
+      <c r="F1283" s="21"/>
+      <c r="G1283" s="22"/>
+      <c r="H1283" s="22"/>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1284" s="20"/>
+      <c r="B1284" s="13"/>
+      <c r="C1284" s="13"/>
+      <c r="D1284" s="13"/>
+      <c r="E1284" s="13"/>
+      <c r="F1284" s="21"/>
+      <c r="G1284" s="22"/>
+      <c r="H1284" s="22"/>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1285" s="20"/>
+      <c r="B1285" s="13"/>
+      <c r="C1285" s="13"/>
+      <c r="D1285" s="13"/>
+      <c r="E1285" s="13"/>
+      <c r="F1285" s="21"/>
+      <c r="G1285" s="22"/>
+      <c r="H1285" s="22"/>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1286" s="20"/>
+      <c r="B1286" s="13"/>
+      <c r="C1286" s="13"/>
+      <c r="D1286" s="13"/>
+      <c r="E1286" s="13"/>
+      <c r="F1286" s="21"/>
+      <c r="G1286" s="22"/>
+      <c r="H1286" s="22"/>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1287" s="20"/>
+      <c r="B1287" s="13"/>
+      <c r="C1287" s="13"/>
+      <c r="D1287" s="13"/>
+      <c r="E1287" s="13"/>
+      <c r="F1287" s="21"/>
+      <c r="G1287" s="22"/>
+      <c r="H1287" s="22"/>
+    </row>
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1288" s="20"/>
+      <c r="B1288" s="13"/>
+      <c r="C1288" s="13"/>
+      <c r="D1288" s="13"/>
+      <c r="E1288" s="13"/>
+      <c r="F1288" s="21"/>
+      <c r="G1288" s="22"/>
+      <c r="H1288" s="22"/>
+    </row>
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1289" s="20"/>
+      <c r="B1289" s="13"/>
+      <c r="C1289" s="13"/>
+      <c r="D1289" s="13"/>
+      <c r="E1289" s="13"/>
+      <c r="F1289" s="21"/>
+      <c r="G1289" s="22"/>
+      <c r="H1289" s="22"/>
+    </row>
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1290" s="20"/>
+      <c r="B1290" s="13"/>
+      <c r="C1290" s="13"/>
+      <c r="D1290" s="13"/>
+      <c r="E1290" s="13"/>
+      <c r="F1290" s="21"/>
+      <c r="G1290" s="22"/>
+      <c r="H1290" s="22"/>
+    </row>
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1291" s="20"/>
+      <c r="B1291" s="13"/>
+      <c r="C1291" s="13"/>
+      <c r="D1291" s="13"/>
+      <c r="E1291" s="13"/>
+      <c r="F1291" s="21"/>
+      <c r="G1291" s="22"/>
+      <c r="H1291" s="22"/>
+    </row>
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1292" s="20"/>
+      <c r="B1292" s="13"/>
+      <c r="C1292" s="13"/>
+      <c r="D1292" s="13"/>
+      <c r="E1292" s="13"/>
+      <c r="F1292" s="21"/>
+      <c r="G1292" s="22"/>
+      <c r="H1292" s="22"/>
+    </row>
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1293" s="20"/>
+      <c r="B1293" s="13"/>
+      <c r="C1293" s="13"/>
+      <c r="D1293" s="13"/>
+      <c r="E1293" s="13"/>
+      <c r="F1293" s="21"/>
+      <c r="G1293" s="22"/>
+      <c r="H1293" s="22"/>
+    </row>
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1294" s="20"/>
+      <c r="B1294" s="13"/>
+      <c r="C1294" s="13"/>
+      <c r="D1294" s="13"/>
+      <c r="E1294" s="13"/>
+      <c r="F1294" s="21"/>
+      <c r="G1294" s="22"/>
+      <c r="H1294" s="22"/>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1295" s="20"/>
+      <c r="B1295" s="13"/>
+      <c r="C1295" s="13"/>
+      <c r="D1295" s="13"/>
+      <c r="E1295" s="13"/>
+      <c r="F1295" s="21"/>
+      <c r="G1295" s="22"/>
+      <c r="H1295" s="22"/>
+    </row>
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1296" s="20"/>
+      <c r="B1296" s="13"/>
+      <c r="C1296" s="13"/>
+      <c r="D1296" s="13"/>
+      <c r="E1296" s="13"/>
+      <c r="F1296" s="21"/>
+      <c r="G1296" s="22"/>
+      <c r="H1296" s="22"/>
+    </row>
+    <row r="1297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1297" s="20"/>
+      <c r="B1297" s="13"/>
+      <c r="C1297" s="13"/>
+      <c r="D1297" s="13"/>
+      <c r="E1297" s="13"/>
+      <c r="F1297" s="21"/>
+      <c r="G1297" s="22"/>
+      <c r="H1297" s="22"/>
+    </row>
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1298" s="20"/>
+      <c r="B1298" s="13"/>
+      <c r="C1298" s="13"/>
+      <c r="D1298" s="13"/>
+      <c r="E1298" s="13"/>
+      <c r="F1298" s="21"/>
+      <c r="G1298" s="22"/>
+      <c r="H1298" s="22"/>
+    </row>
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1299" s="20"/>
+      <c r="B1299" s="13"/>
+      <c r="C1299" s="13"/>
+      <c r="D1299" s="13"/>
+      <c r="E1299" s="13"/>
+      <c r="F1299" s="21"/>
+      <c r="G1299" s="22"/>
+      <c r="H1299" s="22"/>
+    </row>
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1300" s="20"/>
+      <c r="B1300" s="13"/>
+      <c r="C1300" s="13"/>
+      <c r="D1300" s="13"/>
+      <c r="E1300" s="13"/>
+      <c r="F1300" s="21"/>
+      <c r="G1300" s="22"/>
+      <c r="H1300" s="22"/>
+    </row>
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1301" s="20"/>
+      <c r="B1301" s="13"/>
+      <c r="C1301" s="13"/>
+      <c r="D1301" s="13"/>
+      <c r="E1301" s="13"/>
+      <c r="F1301" s="21"/>
+      <c r="G1301" s="22"/>
+      <c r="H1301" s="22"/>
+    </row>
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1302" s="20"/>
+      <c r="B1302" s="13"/>
+      <c r="C1302" s="13"/>
+      <c r="D1302" s="13"/>
+      <c r="E1302" s="13"/>
+      <c r="F1302" s="23"/>
+      <c r="G1302" s="22"/>
+      <c r="H1302" s="22"/>
+    </row>
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1303" s="20"/>
+      <c r="B1303" s="13"/>
+      <c r="C1303" s="13"/>
+      <c r="D1303" s="13"/>
+      <c r="E1303" s="13"/>
+      <c r="F1303" s="21"/>
+      <c r="G1303" s="22"/>
+      <c r="H1303" s="22"/>
+    </row>
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1304" s="20"/>
+      <c r="B1304" s="13"/>
+      <c r="C1304" s="13"/>
+      <c r="D1304" s="13"/>
+      <c r="E1304" s="13"/>
+      <c r="F1304" s="21"/>
+      <c r="G1304" s="22"/>
+      <c r="H1304" s="22"/>
+    </row>
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1305" s="20"/>
+      <c r="B1305" s="13"/>
+      <c r="C1305" s="13"/>
+      <c r="D1305" s="13"/>
+      <c r="E1305" s="13"/>
+      <c r="F1305" s="21"/>
+      <c r="G1305" s="22"/>
+      <c r="H1305" s="22"/>
+    </row>
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1306" s="20"/>
+      <c r="B1306" s="13"/>
+      <c r="C1306" s="13"/>
+      <c r="D1306" s="13"/>
+      <c r="E1306" s="13"/>
+      <c r="F1306" s="21"/>
+      <c r="G1306" s="22"/>
+      <c r="H1306" s="22"/>
+    </row>
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1307" s="20"/>
+      <c r="B1307" s="13"/>
+      <c r="C1307" s="13"/>
+      <c r="D1307" s="13"/>
+      <c r="E1307" s="13"/>
+      <c r="F1307" s="21"/>
+      <c r="G1307" s="22"/>
+      <c r="H1307" s="22"/>
+    </row>
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1308" s="20"/>
+      <c r="B1308" s="13"/>
+      <c r="C1308" s="13"/>
+      <c r="D1308" s="13"/>
+      <c r="E1308" s="13"/>
+      <c r="F1308" s="21"/>
+      <c r="G1308" s="22"/>
+      <c r="H1308" s="22"/>
+    </row>
+    <row r="1309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1309" s="20"/>
+      <c r="B1309" s="13"/>
+      <c r="C1309" s="13"/>
+      <c r="D1309" s="13"/>
+      <c r="E1309" s="13"/>
+      <c r="F1309" s="21"/>
+      <c r="G1309" s="22"/>
+      <c r="H1309" s="22"/>
+    </row>
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1310" s="20"/>
+      <c r="B1310" s="13"/>
+      <c r="C1310" s="13"/>
+      <c r="D1310" s="13"/>
+      <c r="E1310" s="13"/>
+      <c r="F1310" s="21"/>
+      <c r="G1310" s="22"/>
+      <c r="H1310" s="22"/>
+    </row>
+    <row r="1311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1311" s="20"/>
+      <c r="B1311" s="13"/>
+      <c r="C1311" s="13"/>
+      <c r="D1311" s="13"/>
+      <c r="E1311" s="13"/>
+      <c r="F1311" s="21"/>
+      <c r="G1311" s="22"/>
+      <c r="H1311" s="22"/>
+    </row>
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1312" s="20"/>
+      <c r="B1312" s="13"/>
+      <c r="C1312" s="13"/>
+      <c r="D1312" s="13"/>
+      <c r="E1312" s="13"/>
+      <c r="F1312" s="21"/>
+      <c r="G1312" s="22"/>
+      <c r="H1312" s="22"/>
+    </row>
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1313" s="20"/>
+      <c r="B1313" s="13"/>
+      <c r="C1313" s="13"/>
+      <c r="D1313" s="13"/>
+      <c r="E1313" s="13"/>
+      <c r="F1313" s="21"/>
+      <c r="G1313" s="22"/>
+      <c r="H1313" s="22"/>
+    </row>
+    <row r="1314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1314" s="20"/>
+      <c r="B1314" s="13"/>
+      <c r="C1314" s="13"/>
+      <c r="D1314" s="13"/>
+      <c r="E1314" s="13"/>
+      <c r="F1314" s="21"/>
+      <c r="G1314" s="22"/>
+      <c r="H1314" s="22"/>
+    </row>
+    <row r="1315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1315" s="20"/>
+      <c r="B1315" s="13"/>
+      <c r="C1315" s="13"/>
+      <c r="D1315" s="13"/>
+      <c r="E1315" s="13"/>
+      <c r="F1315" s="21"/>
+      <c r="G1315" s="22"/>
+      <c r="H1315" s="22"/>
+    </row>
+    <row r="1316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1316" s="20"/>
+      <c r="B1316" s="13"/>
+      <c r="C1316" s="13"/>
+      <c r="D1316" s="13"/>
+      <c r="E1316" s="13"/>
+      <c r="F1316" s="21"/>
+      <c r="G1316" s="22"/>
+      <c r="H1316" s="22"/>
+    </row>
+    <row r="1317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1317" s="20"/>
+      <c r="B1317" s="13"/>
+      <c r="C1317" s="13"/>
+      <c r="D1317" s="13"/>
+      <c r="E1317" s="13"/>
+      <c r="F1317" s="21"/>
+      <c r="G1317" s="22"/>
+      <c r="H1317" s="22"/>
+    </row>
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1318" s="20"/>
+      <c r="B1318" s="13"/>
+      <c r="C1318" s="13"/>
+      <c r="D1318" s="13"/>
+      <c r="E1318" s="13"/>
+      <c r="F1318" s="21"/>
+      <c r="G1318" s="22"/>
+      <c r="H1318" s="22"/>
+    </row>
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1319" s="20"/>
+      <c r="B1319" s="13"/>
+      <c r="C1319" s="13"/>
+      <c r="D1319" s="13"/>
+      <c r="E1319" s="13"/>
+      <c r="F1319" s="21"/>
+      <c r="G1319" s="22"/>
+      <c r="H1319" s="22"/>
+    </row>
+    <row r="1320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1320" s="20"/>
+      <c r="B1320" s="13"/>
+      <c r="C1320" s="13"/>
+      <c r="D1320" s="13"/>
+      <c r="E1320" s="13"/>
+      <c r="F1320" s="21"/>
+      <c r="G1320" s="22"/>
+      <c r="H1320" s="22"/>
+    </row>
+    <row r="1321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1321" s="20"/>
+      <c r="B1321" s="13"/>
+      <c r="C1321" s="13"/>
+      <c r="D1321" s="13"/>
+      <c r="E1321" s="13"/>
+      <c r="F1321" s="21"/>
+      <c r="G1321" s="22"/>
+      <c r="H1321" s="22"/>
+    </row>
+    <row r="1322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1322" s="20"/>
+      <c r="B1322" s="13"/>
+      <c r="C1322" s="13"/>
+      <c r="D1322" s="13"/>
+      <c r="E1322" s="13"/>
+      <c r="F1322" s="21"/>
+      <c r="G1322" s="22"/>
+      <c r="H1322" s="22"/>
+    </row>
+    <row r="1323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1323" s="20"/>
+      <c r="B1323" s="13"/>
+      <c r="C1323" s="13"/>
+      <c r="D1323" s="13"/>
+      <c r="E1323" s="13"/>
+      <c r="F1323" s="21"/>
+      <c r="G1323" s="22"/>
+      <c r="H1323" s="22"/>
+    </row>
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1324" s="20"/>
+      <c r="B1324" s="13"/>
+      <c r="C1324" s="13"/>
+      <c r="D1324" s="13"/>
+      <c r="E1324" s="13"/>
+      <c r="F1324" s="21"/>
+      <c r="G1324" s="22"/>
+      <c r="H1324" s="22"/>
+    </row>
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1325" s="20"/>
+      <c r="B1325" s="13"/>
+      <c r="C1325" s="13"/>
+      <c r="D1325" s="13"/>
+      <c r="E1325" s="13"/>
+      <c r="F1325" s="21"/>
+      <c r="G1325" s="22"/>
+      <c r="H1325" s="22"/>
+    </row>
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1326" s="20"/>
+      <c r="B1326" s="13"/>
+      <c r="C1326" s="13"/>
+      <c r="D1326" s="13"/>
+      <c r="E1326" s="13"/>
+      <c r="F1326" s="21"/>
+      <c r="G1326" s="22"/>
+      <c r="H1326" s="22"/>
+    </row>
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1327" s="20"/>
+      <c r="B1327" s="13"/>
+      <c r="C1327" s="13"/>
+      <c r="D1327" s="13"/>
+      <c r="E1327" s="13"/>
+      <c r="F1327" s="21"/>
+      <c r="G1327" s="22"/>
+      <c r="H1327" s="22"/>
+    </row>
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1328" s="20"/>
+      <c r="B1328" s="13"/>
+      <c r="C1328" s="13"/>
+      <c r="D1328" s="13"/>
+      <c r="E1328" s="13"/>
+      <c r="F1328" s="21"/>
+      <c r="G1328" s="22"/>
+      <c r="H1328" s="22"/>
+    </row>
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1329" s="20"/>
+      <c r="B1329" s="13"/>
+      <c r="C1329" s="13"/>
+      <c r="D1329" s="13"/>
+      <c r="E1329" s="13"/>
+      <c r="F1329" s="21"/>
+      <c r="G1329" s="22"/>
+      <c r="H1329" s="22"/>
+    </row>
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1330" s="20"/>
+      <c r="B1330" s="13"/>
+      <c r="C1330" s="13"/>
+      <c r="D1330" s="13"/>
+      <c r="E1330" s="13"/>
+      <c r="F1330" s="21"/>
+      <c r="G1330" s="22"/>
+      <c r="H1330" s="22"/>
+    </row>
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1331" s="20"/>
+      <c r="B1331" s="13"/>
+      <c r="C1331" s="13"/>
+      <c r="D1331" s="13"/>
+      <c r="E1331" s="13"/>
+      <c r="F1331" s="21"/>
+      <c r="G1331" s="22"/>
+      <c r="H1331" s="22"/>
+    </row>
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1332" s="20"/>
+      <c r="B1332" s="13"/>
+      <c r="C1332" s="13"/>
+      <c r="D1332" s="13"/>
+      <c r="E1332" s="13"/>
+      <c r="F1332" s="21"/>
+      <c r="G1332" s="22"/>
+      <c r="H1332" s="22"/>
+    </row>
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1333" s="20"/>
+      <c r="B1333" s="13"/>
+      <c r="C1333" s="13"/>
+      <c r="D1333" s="13"/>
+      <c r="E1333" s="13"/>
+      <c r="F1333" s="21"/>
+      <c r="G1333" s="22"/>
+      <c r="H1333" s="22"/>
+    </row>
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1334" s="20"/>
+      <c r="B1334" s="13"/>
+      <c r="C1334" s="13"/>
+      <c r="D1334" s="13"/>
+      <c r="E1334" s="13"/>
+      <c r="F1334" s="21"/>
+      <c r="G1334" s="22"/>
+      <c r="H1334" s="22"/>
+    </row>
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1335" s="20"/>
+      <c r="B1335" s="13"/>
+      <c r="C1335" s="13"/>
+      <c r="D1335" s="13"/>
+      <c r="E1335" s="13"/>
+      <c r="F1335" s="21"/>
+      <c r="G1335" s="22"/>
+      <c r="H1335" s="22"/>
+    </row>
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1336" s="20"/>
+      <c r="B1336" s="13"/>
+      <c r="C1336" s="13"/>
+      <c r="D1336" s="13"/>
+      <c r="E1336" s="13"/>
+      <c r="F1336" s="21"/>
+      <c r="G1336" s="22"/>
+      <c r="H1336" s="22"/>
+    </row>
+    <row r="1337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1337" s="20"/>
+      <c r="B1337" s="13"/>
+      <c r="C1337" s="13"/>
+      <c r="D1337" s="13"/>
+      <c r="E1337" s="13"/>
+      <c r="F1337" s="21"/>
+      <c r="G1337" s="22"/>
+      <c r="H1337" s="22"/>
+    </row>
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1338" s="20"/>
+      <c r="B1338" s="13"/>
+      <c r="C1338" s="13"/>
+      <c r="D1338" s="13"/>
+      <c r="E1338" s="13"/>
+      <c r="F1338" s="21"/>
+      <c r="G1338" s="22"/>
+      <c r="H1338" s="22"/>
+    </row>
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1339" s="20"/>
+      <c r="B1339" s="13"/>
+      <c r="C1339" s="13"/>
+      <c r="D1339" s="13"/>
+      <c r="E1339" s="13"/>
+      <c r="F1339" s="21"/>
+      <c r="G1339" s="22"/>
+      <c r="H1339" s="22"/>
+    </row>
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1340" s="20"/>
+      <c r="B1340" s="13"/>
+      <c r="C1340" s="13"/>
+      <c r="D1340" s="13"/>
+      <c r="E1340" s="13"/>
+      <c r="F1340" s="21"/>
+      <c r="G1340" s="22"/>
+      <c r="H1340" s="22"/>
+    </row>
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1341" s="20"/>
+      <c r="B1341" s="13"/>
+      <c r="C1341" s="13"/>
+      <c r="D1341" s="13"/>
+      <c r="E1341" s="13"/>
+      <c r="F1341" s="21"/>
+      <c r="G1341" s="22"/>
+      <c r="H1341" s="22"/>
+    </row>
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1342" s="20"/>
+      <c r="B1342" s="13"/>
+      <c r="C1342" s="13"/>
+      <c r="D1342" s="13"/>
+      <c r="E1342" s="13"/>
+      <c r="F1342" s="21"/>
+      <c r="G1342" s="22"/>
+      <c r="H1342" s="22"/>
+    </row>
+    <row r="1343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1343" s="20"/>
+      <c r="B1343" s="13"/>
+      <c r="C1343" s="13"/>
+      <c r="D1343" s="13"/>
+      <c r="E1343" s="13"/>
+      <c r="F1343" s="21"/>
+      <c r="G1343" s="22"/>
+      <c r="H1343" s="22"/>
+    </row>
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1344" s="20"/>
+      <c r="B1344" s="13"/>
+      <c r="C1344" s="13"/>
+      <c r="D1344" s="13"/>
+      <c r="E1344" s="13"/>
+      <c r="F1344" s="21"/>
+      <c r="G1344" s="22"/>
+      <c r="H1344" s="22"/>
+    </row>
+    <row r="1345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1345" s="20"/>
+      <c r="B1345" s="13"/>
+      <c r="C1345" s="13"/>
+      <c r="D1345" s="13"/>
+      <c r="E1345" s="13"/>
+      <c r="F1345" s="21"/>
+      <c r="G1345" s="22"/>
+      <c r="H1345" s="22"/>
+    </row>
+    <row r="1346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1346" s="20"/>
+      <c r="B1346" s="13"/>
+      <c r="C1346" s="13"/>
+      <c r="D1346" s="13"/>
+      <c r="E1346" s="13"/>
+      <c r="F1346" s="21"/>
+      <c r="G1346" s="22"/>
+      <c r="H1346" s="22"/>
+    </row>
+    <row r="1347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1347" s="20"/>
+      <c r="B1347" s="13"/>
+      <c r="C1347" s="13"/>
+      <c r="D1347" s="13"/>
+      <c r="E1347" s="13"/>
+      <c r="F1347" s="21"/>
+      <c r="G1347" s="22"/>
+      <c r="H1347" s="22"/>
+    </row>
+    <row r="1348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1348" s="20"/>
+      <c r="B1348" s="13"/>
+      <c r="C1348" s="13"/>
+      <c r="D1348" s="13"/>
+      <c r="E1348" s="13"/>
+      <c r="F1348" s="21"/>
+      <c r="G1348" s="22"/>
+      <c r="H1348" s="22"/>
+    </row>
+    <row r="1349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1349" s="20"/>
+      <c r="B1349" s="13"/>
+      <c r="C1349" s="13"/>
+      <c r="D1349" s="13"/>
+      <c r="E1349" s="13"/>
+      <c r="F1349" s="23"/>
+      <c r="G1349" s="22"/>
+      <c r="H1349" s="22"/>
+    </row>
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1350" s="20"/>
+      <c r="B1350" s="13"/>
+      <c r="C1350" s="13"/>
+      <c r="D1350" s="13"/>
+      <c r="E1350" s="13"/>
+      <c r="F1350" s="23"/>
+      <c r="G1350" s="22"/>
+      <c r="H1350" s="22"/>
+    </row>
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1351" s="20"/>
+      <c r="B1351" s="13"/>
+      <c r="C1351" s="13"/>
+      <c r="D1351" s="13"/>
+      <c r="E1351" s="13"/>
+      <c r="F1351" s="23"/>
+      <c r="G1351" s="22"/>
+      <c r="H1351" s="22"/>
+    </row>
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1352" s="20"/>
+      <c r="B1352" s="13"/>
+      <c r="C1352" s="13"/>
+      <c r="D1352" s="13"/>
+      <c r="E1352" s="13"/>
+      <c r="F1352" s="23"/>
+      <c r="G1352" s="22"/>
+      <c r="H1352" s="22"/>
+    </row>
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1353" s="20"/>
+      <c r="B1353" s="13"/>
+      <c r="C1353" s="13"/>
+      <c r="D1353" s="13"/>
+      <c r="E1353" s="13"/>
+      <c r="F1353" s="23"/>
+      <c r="G1353" s="22"/>
+      <c r="H1353" s="22"/>
+    </row>
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1354" s="20"/>
+      <c r="B1354" s="13"/>
+      <c r="C1354" s="13"/>
+      <c r="D1354" s="13"/>
+      <c r="E1354" s="13"/>
+      <c r="F1354" s="21"/>
+      <c r="G1354" s="22"/>
+      <c r="H1354" s="22"/>
+    </row>
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1355" s="20"/>
+      <c r="B1355" s="13"/>
+      <c r="C1355" s="13"/>
+      <c r="D1355" s="13"/>
+      <c r="E1355" s="13"/>
+      <c r="F1355" s="21"/>
+      <c r="G1355" s="22"/>
+      <c r="H1355" s="22"/>
+    </row>
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1356" s="20"/>
+      <c r="B1356" s="13"/>
+      <c r="C1356" s="13"/>
+      <c r="D1356" s="13"/>
+      <c r="E1356" s="13"/>
+      <c r="F1356" s="21"/>
+      <c r="G1356" s="22"/>
+      <c r="H1356" s="22"/>
+    </row>
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1357" s="20"/>
+      <c r="B1357" s="13"/>
+      <c r="C1357" s="13"/>
+      <c r="D1357" s="13"/>
+      <c r="E1357" s="13"/>
+      <c r="F1357" s="21"/>
+      <c r="G1357" s="22"/>
+      <c r="H1357" s="22"/>
+    </row>
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1358" s="20"/>
+      <c r="B1358" s="13"/>
+      <c r="C1358" s="13"/>
+      <c r="D1358" s="13"/>
+      <c r="E1358" s="13"/>
+      <c r="F1358" s="21"/>
+      <c r="G1358" s="22"/>
+      <c r="H1358" s="22"/>
+    </row>
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1359" s="20"/>
+      <c r="B1359" s="13"/>
+      <c r="C1359" s="13"/>
+      <c r="D1359" s="13"/>
+      <c r="E1359" s="13"/>
+      <c r="F1359" s="21"/>
+      <c r="G1359" s="22"/>
+      <c r="H1359" s="22"/>
+    </row>
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1360" s="20"/>
+      <c r="B1360" s="13"/>
+      <c r="C1360" s="13"/>
+      <c r="D1360" s="13"/>
+      <c r="E1360" s="13"/>
+      <c r="F1360" s="21"/>
+      <c r="G1360" s="22"/>
+      <c r="H1360" s="22"/>
+    </row>
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1361" s="20"/>
+      <c r="B1361" s="13"/>
+      <c r="C1361" s="13"/>
+      <c r="D1361" s="13"/>
+      <c r="E1361" s="13"/>
+      <c r="F1361" s="21"/>
+      <c r="G1361" s="22"/>
+      <c r="H1361" s="22"/>
+    </row>
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1362" s="20"/>
+      <c r="B1362" s="13"/>
+      <c r="C1362" s="13"/>
+      <c r="D1362" s="13"/>
+      <c r="E1362" s="13"/>
+      <c r="F1362" s="21"/>
+      <c r="G1362" s="22"/>
+      <c r="H1362" s="22"/>
+    </row>
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1363" s="20"/>
+      <c r="B1363" s="13"/>
+      <c r="C1363" s="13"/>
+      <c r="D1363" s="13"/>
+      <c r="E1363" s="13"/>
+      <c r="F1363" s="21"/>
+      <c r="G1363" s="22"/>
+      <c r="H1363" s="22"/>
+    </row>
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1364" s="20"/>
+      <c r="B1364" s="13"/>
+      <c r="C1364" s="13"/>
+      <c r="D1364" s="13"/>
+      <c r="E1364" s="13"/>
+      <c r="F1364" s="21"/>
+      <c r="G1364" s="22"/>
+      <c r="H1364" s="22"/>
+    </row>
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1365" s="20"/>
+      <c r="B1365" s="13"/>
+      <c r="C1365" s="13"/>
+      <c r="D1365" s="13"/>
+      <c r="E1365" s="13"/>
+      <c r="F1365" s="21"/>
+      <c r="G1365" s="22"/>
+      <c r="H1365" s="22"/>
+    </row>
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1366" s="20"/>
+      <c r="B1366" s="13"/>
+      <c r="C1366" s="13"/>
+      <c r="D1366" s="13"/>
+      <c r="E1366" s="13"/>
+      <c r="F1366" s="21"/>
+      <c r="G1366" s="22"/>
+      <c r="H1366" s="22"/>
+    </row>
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1367" s="20"/>
+      <c r="B1367" s="13"/>
+      <c r="C1367" s="13"/>
+      <c r="D1367" s="13"/>
+      <c r="E1367" s="13"/>
+      <c r="F1367" s="21"/>
+      <c r="G1367" s="22"/>
+      <c r="H1367" s="22"/>
+    </row>
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1368" s="20"/>
+      <c r="B1368" s="13"/>
+      <c r="C1368" s="13"/>
+      <c r="D1368" s="13"/>
+      <c r="E1368" s="13"/>
+      <c r="F1368" s="21"/>
+      <c r="G1368" s="22"/>
+      <c r="H1368" s="22"/>
+    </row>
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1369" s="20"/>
+      <c r="B1369" s="13"/>
+      <c r="C1369" s="13"/>
+      <c r="D1369" s="13"/>
+      <c r="E1369" s="13"/>
+      <c r="F1369" s="23"/>
+      <c r="G1369" s="22"/>
+      <c r="H1369" s="22"/>
+    </row>
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1370" s="20"/>
+      <c r="B1370" s="13"/>
+      <c r="C1370" s="13"/>
+      <c r="D1370" s="13"/>
+      <c r="E1370" s="13"/>
+      <c r="F1370" s="23"/>
+      <c r="G1370" s="22"/>
+      <c r="H1370" s="22"/>
+    </row>
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1371" s="20"/>
+      <c r="B1371" s="13"/>
+      <c r="C1371" s="13"/>
+      <c r="D1371" s="13"/>
+      <c r="E1371" s="13"/>
+      <c r="F1371" s="21"/>
+      <c r="G1371" s="22"/>
+      <c r="H1371" s="22"/>
+    </row>
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1372" s="20"/>
+      <c r="B1372" s="13"/>
+      <c r="C1372" s="13"/>
+      <c r="D1372" s="13"/>
+      <c r="E1372" s="13"/>
+      <c r="F1372" s="21"/>
+      <c r="G1372" s="22"/>
+      <c r="H1372" s="22"/>
+    </row>
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1373" s="20"/>
+      <c r="B1373" s="13"/>
+      <c r="C1373" s="13"/>
+      <c r="D1373" s="13"/>
+      <c r="E1373" s="13"/>
+      <c r="F1373" s="21"/>
+      <c r="G1373" s="22"/>
+      <c r="H1373" s="22"/>
+    </row>
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1374" s="20"/>
+      <c r="B1374" s="13"/>
+      <c r="C1374" s="13"/>
+      <c r="D1374" s="13"/>
+      <c r="E1374" s="13"/>
+      <c r="F1374" s="21"/>
+      <c r="G1374" s="22"/>
+      <c r="H1374" s="22"/>
+    </row>
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1375" s="20"/>
+      <c r="B1375" s="13"/>
+      <c r="C1375" s="13"/>
+      <c r="D1375" s="13"/>
+      <c r="E1375" s="13"/>
+      <c r="F1375" s="21"/>
+      <c r="G1375" s="22"/>
+      <c r="H1375" s="22"/>
+    </row>
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1376" s="20"/>
+      <c r="B1376" s="13"/>
+      <c r="C1376" s="13"/>
+      <c r="D1376" s="13"/>
+      <c r="E1376" s="13"/>
+      <c r="F1376" s="23"/>
+      <c r="G1376" s="22"/>
+      <c r="H1376" s="22"/>
+    </row>
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1377" s="20"/>
+      <c r="B1377" s="13"/>
+      <c r="C1377" s="13"/>
+      <c r="D1377" s="13"/>
+      <c r="E1377" s="13"/>
+      <c r="F1377" s="21"/>
+      <c r="G1377" s="22"/>
+      <c r="H1377" s="22"/>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1378" s="20"/>
+      <c r="B1378" s="13"/>
+      <c r="C1378" s="13"/>
+      <c r="D1378" s="13"/>
+      <c r="E1378" s="13"/>
+      <c r="F1378" s="21"/>
+      <c r="G1378" s="22"/>
+      <c r="H1378" s="22"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G241:G901">
-    <cfRule type="cellIs" dxfId="56" priority="41" operator="equal">
+  <autoFilter ref="A1:H1378" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="G241:G1133">
+    <cfRule type="cellIs" dxfId="78" priority="64" operator="equal">
       <formula>"Não carregou no veículo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="65" operator="equal">
       <formula>"Reentrega"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="66" operator="equal">
       <formula>"Devolução parcial"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="67" operator="equal">
       <formula>"Devolução total"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="68" operator="equal">
       <formula>"Entregue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G557">
-    <cfRule type="cellIs" dxfId="51" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="231" operator="equal">
       <formula>"Ok-Adm"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="232" operator="equal">
       <formula>"Imagem com erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="233" operator="equal">
       <formula>"Falta baixar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="234" operator="equal">
       <formula>"Ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G559:G568">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="113" operator="equal">
       <formula>"Ok-Adm"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="114" operator="equal">
       <formula>"Imagem com erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="115" operator="equal">
       <formula>"Falta baixar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="116" operator="equal">
       <formula>"Ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G570:G573">
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="109" operator="equal">
       <formula>"Ok-Adm"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="110" operator="equal">
       <formula>"Imagem com erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="111" operator="equal">
       <formula>"Falta baixar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="112" operator="equal">
       <formula>"Ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H241:H901">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+  <conditionalFormatting sqref="H241:H1133">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
+      <formula>"Imagem com erro"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
+      <formula>"Falta baixar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
+      <formula>"Ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
       <formula>"Ok-Adm"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1170:G1378">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
+      <formula>"Não carregou no veículo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
+      <formula>"Reentrega"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="48" operator="equal">
+      <formula>"Devolução parcial"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>"Devolução total"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>"Entregue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1170:H1378">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
+      <formula>"Ok-Adm"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1170:H1378">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>"Imagem com erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
       <formula>"Falta baixar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
       <formula>"Ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H902:H974">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+  <conditionalFormatting sqref="G1134:G1169">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"Não carregou no veículo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Reentrega"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Devolução parcial"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Devolução total"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Entregue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1134:H1169">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"Ok-Adm"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H902:H974">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+  <conditionalFormatting sqref="H1134:H1169">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Imagem com erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Falta baixar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G902:G974">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
-      <formula>"Não carregou no veículo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
-      <formula>"Reentrega"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>"Devolução parcial"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
-      <formula>"Devolução total"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
-      <formula>"Entregue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H975:H999">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>"Ok-Adm"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H975:H999">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
-      <formula>"Imagem com erro"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>"Falta baixar"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
-      <formula>"Ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G975:G999">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
-      <formula>"Não carregou no veículo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
-      <formula>"Reentrega"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>"Devolução parcial"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>"Devolução total"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
-      <formula>"Entregue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1000:H1048">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"Ok-Adm"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1000:H1048">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
-      <formula>"Imagem com erro"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>"Falta baixar"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
-      <formula>"Ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1000:G1048">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
-      <formula>"Não carregou no veículo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
-      <formula>"Reentrega"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"Devolução parcial"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
-      <formula>"Devolução total"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
-      <formula>"Entregue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1049:H1133">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"Ok-Adm"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1049:H1133">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
-      <formula>"Imagem com erro"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"Falta baixar"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
-      <formula>"Ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1049:G1133">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"Não carregou no veículo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"Reentrega"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Devolução parcial"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"Devolução total"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"Entregue"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G241:G1133" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G557 G559:G568 G570:G573 H241:H1378" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Ok,Ok-Adm,Falta baixar,Imagem com erro"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G241:G1378" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Entregue,Devolução total,Devolução parcial,Reentrega,Não carregou no veículo"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H241:H1133 G557 G559:G568 G570:G573" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Ok,Ok-Adm,Falta baixar,Imagem com erro"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
